--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_17_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_17_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1627292.431351646</v>
+        <v>1625558.950238003</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6049179.212228711</v>
+        <v>6049179.212228708</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>285.8416805439006</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>275.251830393576</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>302.4991588451548</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>327.4448345146045</v>
       </c>
       <c r="G11" t="n">
-        <v>333.0902356170842</v>
+        <v>333.0902356170841</v>
       </c>
       <c r="H11" t="n">
-        <v>176.3919452552668</v>
+        <v>231.5596978048557</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>23.81896975173338</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.21019719500373</v>
+        <v>66.2101971950037</v>
       </c>
       <c r="T11" t="n">
-        <v>131.4895384249674</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>171.691938427054</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>248.3210472430279</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>269.8097574903061</v>
+        <v>107.9233570168126</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>290.299889451362</v>
       </c>
       <c r="Y11" t="n">
         <v>306.8067274289466</v>
@@ -1449,22 +1449,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>105.5890620776359</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>68.0138543375318</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>65.63800116627692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>135.8553954612995</v>
       </c>
       <c r="H12" t="n">
-        <v>97.863321483828</v>
+        <v>18.43211025672101</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754556</v>
       </c>
       <c r="S12" t="n">
-        <v>144.0419631757947</v>
+        <v>64.61075194868775</v>
       </c>
       <c r="T12" t="n">
-        <v>194.1665539401884</v>
+        <v>127.0471170295091</v>
       </c>
       <c r="U12" t="n">
         <v>225.843479337428</v>
@@ -1528,25 +1528,25 @@
         <v>100.4007689548303</v>
       </c>
       <c r="C13" t="n">
-        <v>87.81560987152088</v>
+        <v>87.81560987152083</v>
       </c>
       <c r="D13" t="n">
-        <v>69.1842617911054</v>
+        <v>69.18426179110536</v>
       </c>
       <c r="E13" t="n">
-        <v>67.00275141946221</v>
+        <v>67.00275141946217</v>
       </c>
       <c r="F13" t="n">
-        <v>65.98983679582429</v>
+        <v>65.98983679582425</v>
       </c>
       <c r="G13" t="n">
-        <v>87.31217688571732</v>
+        <v>87.31217688571728</v>
       </c>
       <c r="H13" t="n">
-        <v>71.70374093278245</v>
+        <v>71.70374093278241</v>
       </c>
       <c r="I13" t="n">
-        <v>38.50079242234361</v>
+        <v>38.50079242234357</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.76594105089781</v>
+        <v>41.76594105089778</v>
       </c>
       <c r="S13" t="n">
         <v>122.8432739200354</v>
@@ -1610,19 +1610,19 @@
         <v>285.8416805439006</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>275.251830393576</v>
       </c>
       <c r="E14" t="n">
-        <v>302.4991588451549</v>
+        <v>302.4991588451548</v>
       </c>
       <c r="F14" t="n">
-        <v>327.4448345146045</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>333.0902356170842</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>152.6167111203474</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>131.4895384249673</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>171.691938427054</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>218.2116360288536</v>
       </c>
       <c r="W14" t="n">
-        <v>269.8097574903061</v>
+        <v>269.809757490306</v>
       </c>
       <c r="X14" t="n">
-        <v>290.2998894513621</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>306.8067274289466</v>
       </c>
     </row>
     <row r="15">
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>56.4241842341925</v>
+        <v>135.8553954612995</v>
       </c>
       <c r="H15" t="n">
-        <v>72.01423207165919</v>
+        <v>18.43211025672104</v>
       </c>
       <c r="I15" t="n">
-        <v>38.16086372859611</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S15" t="n">
-        <v>64.61075194868778</v>
+        <v>76.92252626511529</v>
       </c>
       <c r="T15" t="n">
-        <v>114.7353427130815</v>
+        <v>114.7353427130814</v>
       </c>
       <c r="U15" t="n">
         <v>225.843479337428</v>
@@ -1765,25 +1765,25 @@
         <v>100.4007689548303</v>
       </c>
       <c r="C16" t="n">
-        <v>87.81560987152088</v>
+        <v>87.81560987152086</v>
       </c>
       <c r="D16" t="n">
-        <v>69.1842617911054</v>
+        <v>69.18426179110538</v>
       </c>
       <c r="E16" t="n">
-        <v>67.00275141946221</v>
+        <v>67.0027514194622</v>
       </c>
       <c r="F16" t="n">
-        <v>65.98983679582429</v>
+        <v>65.98983679582427</v>
       </c>
       <c r="G16" t="n">
-        <v>87.31217688571732</v>
+        <v>87.31217688571731</v>
       </c>
       <c r="H16" t="n">
-        <v>71.70374093278245</v>
+        <v>71.70374093278244</v>
       </c>
       <c r="I16" t="n">
-        <v>38.5007924223436</v>
+        <v>38.50079242234359</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.76594105089781</v>
+        <v>41.7659410508978</v>
       </c>
       <c r="S16" t="n">
         <v>122.8432739200354</v>
@@ -1844,13 +1844,13 @@
         <v>223.8714192092666</v>
       </c>
       <c r="C17" t="n">
-        <v>206.4104693167936</v>
+        <v>26.51214666710348</v>
       </c>
       <c r="D17" t="n">
         <v>195.820619166469</v>
       </c>
       <c r="E17" t="n">
-        <v>43.16962496835851</v>
+        <v>223.0679476180478</v>
       </c>
       <c r="F17" t="n">
         <v>248.0136232874975</v>
@@ -1859,7 +1859,7 @@
         <v>253.6590243899772</v>
       </c>
       <c r="H17" t="n">
-        <v>152.1284865777488</v>
+        <v>152.1284865777487</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,16 +1895,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>52.05832719786039</v>
+        <v>52.05832719786037</v>
       </c>
       <c r="U17" t="n">
-        <v>92.26072719994704</v>
+        <v>92.26072719994701</v>
       </c>
       <c r="V17" t="n">
-        <v>168.889836015921</v>
+        <v>168.8898360159209</v>
       </c>
       <c r="W17" t="n">
-        <v>190.3785462631991</v>
+        <v>190.378546263199</v>
       </c>
       <c r="X17" t="n">
         <v>210.8686782242551</v>
@@ -1923,7 +1923,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>105.5890620776361</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1938,7 +1938,7 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H18" t="n">
-        <v>97.863321483828</v>
+        <v>23.68717693748354</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.763751642754528</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>144.0419631757947</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>35.30413148597447</v>
+        <v>194.1665539401884</v>
       </c>
       <c r="U18" t="n">
         <v>225.843479337428</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.96955772772336</v>
+        <v>20.96955772772333</v>
       </c>
       <c r="C19" t="n">
-        <v>8.384398644413892</v>
+        <v>8.384398644413864</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>166.7433881128243</v>
       </c>
       <c r="H19" t="n">
-        <v>66.54829305620288</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>54.11983324855797</v>
       </c>
       <c r="S19" t="n">
-        <v>202.2744851471423</v>
+        <v>43.41206269292837</v>
       </c>
       <c r="T19" t="n">
-        <v>63.75254983362934</v>
+        <v>222.6149722878433</v>
       </c>
       <c r="U19" t="n">
         <v>127.3885564706969</v>
       </c>
       <c r="V19" t="n">
-        <v>93.27522086961406</v>
+        <v>93.27522086961403</v>
       </c>
       <c r="W19" t="n">
-        <v>127.6605758823771</v>
+        <v>127.660575882377</v>
       </c>
       <c r="X19" t="n">
-        <v>66.84723293482321</v>
+        <v>66.84723293482318</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.72223089788085</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>195.820619166469</v>
       </c>
       <c r="E20" t="n">
-        <v>43.16962496835789</v>
+        <v>43.16962496835822</v>
       </c>
       <c r="F20" t="n">
         <v>248.0136232874975</v>
@@ -2096,7 +2096,7 @@
         <v>253.6590243899772</v>
       </c>
       <c r="H20" t="n">
-        <v>152.1284865777488</v>
+        <v>152.1284865777487</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,16 +2132,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>52.05832719786039</v>
+        <v>52.05832719786037</v>
       </c>
       <c r="U20" t="n">
-        <v>92.26072719994704</v>
+        <v>92.26072719994701</v>
       </c>
       <c r="V20" t="n">
-        <v>168.889836015921</v>
+        <v>168.8898360159209</v>
       </c>
       <c r="W20" t="n">
-        <v>190.3785462631991</v>
+        <v>190.378546263199</v>
       </c>
       <c r="X20" t="n">
         <v>210.8686782242551</v>
@@ -2172,13 +2172,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.8553954612995</v>
+        <v>15.50060922298845</v>
       </c>
       <c r="H21" t="n">
-        <v>97.863321483828</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>38.16086372859611</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.763751642754528</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>144.0419631757947</v>
       </c>
       <c r="T21" t="n">
-        <v>74.06579402249335</v>
+        <v>194.1665539401884</v>
       </c>
       <c r="U21" t="n">
         <v>225.843479337428</v>
@@ -2236,31 +2236,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.96955772772336</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>8.384398644413892</v>
+        <v>8.384398644413864</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>67.56120767984063</v>
       </c>
       <c r="E22" t="n">
-        <v>70.13419892385008</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7433881128243</v>
+        <v>7.880965658610313</v>
       </c>
       <c r="H22" t="n">
-        <v>151.1349521598894</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.154479050315288</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>43.4120626929284</v>
+        <v>43.41206269292837</v>
       </c>
       <c r="T22" t="n">
-        <v>63.75254983362934</v>
+        <v>63.75254983362931</v>
       </c>
       <c r="U22" t="n">
         <v>127.3885564706969</v>
       </c>
       <c r="V22" t="n">
-        <v>93.27522086961406</v>
+        <v>93.27522086961403</v>
       </c>
       <c r="W22" t="n">
-        <v>127.6605758823771</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>66.84723293482321</v>
+        <v>66.84723293482318</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.72223089788085</v>
+        <v>59.72223089788082</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>253.6590243899772</v>
       </c>
       <c r="H23" t="n">
-        <v>152.1284865777488</v>
+        <v>152.1284865777487</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,16 +2369,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>52.05832719786039</v>
+        <v>52.05832719786037</v>
       </c>
       <c r="U23" t="n">
-        <v>92.26072719994704</v>
+        <v>92.26072719994701</v>
       </c>
       <c r="V23" t="n">
-        <v>168.889836015921</v>
+        <v>168.8898360159209</v>
       </c>
       <c r="W23" t="n">
-        <v>190.3785462631991</v>
+        <v>190.378546263199</v>
       </c>
       <c r="X23" t="n">
         <v>210.8686782242551</v>
@@ -2412,10 +2412,10 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H24" t="n">
-        <v>97.863321483828</v>
+        <v>51.77978476862342</v>
       </c>
       <c r="I24" t="n">
-        <v>38.16086372859611</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S24" t="n">
-        <v>67.56131437474943</v>
+        <v>144.0419631757947</v>
       </c>
       <c r="T24" t="n">
         <v>194.1665539401884</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.96955772772336</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>8.384398644413892</v>
+        <v>8.384398644413864</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>75.28867797416537</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7433881128243</v>
+        <v>7.880965658610313</v>
       </c>
       <c r="H25" t="n">
-        <v>151.1349521598894</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.4120626929284</v>
+        <v>43.41206269292837</v>
       </c>
       <c r="T25" t="n">
-        <v>63.75254983362934</v>
+        <v>63.75254983362931</v>
       </c>
       <c r="U25" t="n">
         <v>127.3885564706969</v>
       </c>
       <c r="V25" t="n">
-        <v>93.27522086961406</v>
+        <v>93.27522086961403</v>
       </c>
       <c r="W25" t="n">
-        <v>127.6605758823771</v>
+        <v>195.2217835622179</v>
       </c>
       <c r="X25" t="n">
-        <v>66.84723293482321</v>
+        <v>66.84723293482318</v>
       </c>
       <c r="Y25" t="n">
-        <v>59.72223089788085</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2561,19 +2561,19 @@
         <v>275.251830393576</v>
       </c>
       <c r="E26" t="n">
-        <v>302.4991588451548</v>
+        <v>302.4991588451549</v>
       </c>
       <c r="F26" t="n">
         <v>327.4448345146045</v>
       </c>
       <c r="G26" t="n">
-        <v>333.0902356170841</v>
+        <v>333.0902356170842</v>
       </c>
       <c r="H26" t="n">
         <v>231.5596978048557</v>
       </c>
       <c r="I26" t="n">
-        <v>23.81896975173339</v>
+        <v>23.81896975173338</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>66.21019719500376</v>
       </c>
       <c r="T26" t="n">
-        <v>131.4895384249673</v>
+        <v>131.4895384249674</v>
       </c>
       <c r="U26" t="n">
         <v>171.691938427054</v>
@@ -2615,10 +2615,10 @@
         <v>248.3210472430279</v>
       </c>
       <c r="W26" t="n">
-        <v>269.809757490306</v>
+        <v>269.8097574903061</v>
       </c>
       <c r="X26" t="n">
-        <v>290.299889451362</v>
+        <v>290.2998894513621</v>
       </c>
       <c r="Y26" t="n">
         <v>306.8067274289466</v>
@@ -2649,10 +2649,10 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H27" t="n">
-        <v>97.86332148382802</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I27" t="n">
-        <v>38.16086372859612</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.763751642754556</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S27" t="n">
-        <v>144.0419631757948</v>
+        <v>144.0419631757947</v>
       </c>
       <c r="T27" t="n">
         <v>194.1665539401884</v>
@@ -2713,25 +2713,25 @@
         <v>100.4007689548303</v>
       </c>
       <c r="C28" t="n">
-        <v>87.81560987152086</v>
+        <v>87.81560987152088</v>
       </c>
       <c r="D28" t="n">
-        <v>69.18426179110538</v>
+        <v>69.1842617911054</v>
       </c>
       <c r="E28" t="n">
-        <v>67.0027514194622</v>
+        <v>67.00275141946221</v>
       </c>
       <c r="F28" t="n">
-        <v>65.98983679582427</v>
+        <v>65.98983679582429</v>
       </c>
       <c r="G28" t="n">
-        <v>87.31217688571731</v>
+        <v>87.31217688571732</v>
       </c>
       <c r="H28" t="n">
         <v>71.70374093278244</v>
       </c>
       <c r="I28" t="n">
-        <v>38.5007924223436</v>
+        <v>38.50079242234361</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76594105089781</v>
+        <v>41.76594105089782</v>
       </c>
       <c r="S28" t="n">
         <v>122.8432739200354</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>303.3026304363736</v>
+        <v>303.3026304363737</v>
       </c>
       <c r="C29" t="n">
-        <v>285.8416805439006</v>
+        <v>285.8416805439007</v>
       </c>
       <c r="D29" t="n">
-        <v>275.251830393576</v>
+        <v>275.2518303935761</v>
       </c>
       <c r="E29" t="n">
-        <v>302.4991588451548</v>
+        <v>302.4991588451549</v>
       </c>
       <c r="F29" t="n">
-        <v>327.4448345146045</v>
+        <v>327.4448345146046</v>
       </c>
       <c r="G29" t="n">
-        <v>333.0902356170841</v>
+        <v>333.0902356170843</v>
       </c>
       <c r="H29" t="n">
-        <v>231.5596978048557</v>
+        <v>231.5596978048559</v>
       </c>
       <c r="I29" t="n">
-        <v>23.81896975173333</v>
+        <v>23.81896975173346</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.2101971950037</v>
+        <v>66.21019719500384</v>
       </c>
       <c r="T29" t="n">
-        <v>131.4895384249673</v>
+        <v>131.4895384249675</v>
       </c>
       <c r="U29" t="n">
-        <v>171.691938427054</v>
+        <v>171.6919384270541</v>
       </c>
       <c r="V29" t="n">
-        <v>248.3210472430279</v>
+        <v>248.321047243028</v>
       </c>
       <c r="W29" t="n">
-        <v>269.809757490306</v>
+        <v>269.8097574903061</v>
       </c>
       <c r="X29" t="n">
-        <v>290.299889451362</v>
+        <v>290.2998894513622</v>
       </c>
       <c r="Y29" t="n">
-        <v>306.8067274289466</v>
+        <v>306.8067274289467</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S30" t="n">
         <v>144.0419631757947</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.4007689548303</v>
+        <v>100.4007689548304</v>
       </c>
       <c r="C31" t="n">
-        <v>87.81560987152085</v>
+        <v>87.81560987152096</v>
       </c>
       <c r="D31" t="n">
-        <v>69.18426179110537</v>
+        <v>69.18426179110548</v>
       </c>
       <c r="E31" t="n">
-        <v>67.00275141946219</v>
+        <v>67.0027514194623</v>
       </c>
       <c r="F31" t="n">
-        <v>65.98983679582426</v>
+        <v>65.98983679582437</v>
       </c>
       <c r="G31" t="n">
-        <v>87.31217688571729</v>
+        <v>87.31217688571741</v>
       </c>
       <c r="H31" t="n">
-        <v>71.70374093278242</v>
+        <v>71.70374093278254</v>
       </c>
       <c r="I31" t="n">
-        <v>38.50079242234471</v>
+        <v>38.50079242234178</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76594105089778</v>
+        <v>41.7659410508979</v>
       </c>
       <c r="S31" t="n">
-        <v>122.8432739200354</v>
+        <v>122.8432739200355</v>
       </c>
       <c r="T31" t="n">
-        <v>143.1837610607363</v>
+        <v>143.1837610607364</v>
       </c>
       <c r="U31" t="n">
-        <v>206.8197676978039</v>
+        <v>206.819767697804</v>
       </c>
       <c r="V31" t="n">
-        <v>172.706432096721</v>
+        <v>172.7064320967211</v>
       </c>
       <c r="W31" t="n">
-        <v>207.091787109484</v>
+        <v>207.0917871094841</v>
       </c>
       <c r="X31" t="n">
-        <v>146.2784441619302</v>
+        <v>146.2784441619303</v>
       </c>
       <c r="Y31" t="n">
-        <v>139.1534421249878</v>
+        <v>139.1534421249879</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>231.5596978048558</v>
       </c>
       <c r="I32" t="n">
-        <v>23.81896975173338</v>
+        <v>23.81896975173341</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.21019719500374</v>
+        <v>66.21019719500379</v>
       </c>
       <c r="T32" t="n">
         <v>131.4895384249674</v>
       </c>
       <c r="U32" t="n">
-        <v>171.691938427054</v>
+        <v>171.6919384270541</v>
       </c>
       <c r="V32" t="n">
         <v>248.321047243028</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S33" t="n">
         <v>144.0419631757947</v>
@@ -3187,25 +3187,25 @@
         <v>100.4007689548304</v>
       </c>
       <c r="C34" t="n">
-        <v>87.81560987152089</v>
+        <v>87.81560987152091</v>
       </c>
       <c r="D34" t="n">
-        <v>69.18426179110541</v>
+        <v>69.18426179110543</v>
       </c>
       <c r="E34" t="n">
-        <v>67.00275141946223</v>
+        <v>67.00275141946224</v>
       </c>
       <c r="F34" t="n">
-        <v>65.9898367958243</v>
+        <v>65.98983679582432</v>
       </c>
       <c r="G34" t="n">
-        <v>87.31217688571734</v>
+        <v>87.31217688571735</v>
       </c>
       <c r="H34" t="n">
         <v>71.70374093278247</v>
       </c>
       <c r="I34" t="n">
-        <v>38.50079242234361</v>
+        <v>38.50079242234364</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76594105089782</v>
+        <v>41.76594105089785</v>
       </c>
       <c r="S34" t="n">
         <v>122.8432739200354</v>
@@ -3266,19 +3266,19 @@
         <v>237.0924332413699</v>
       </c>
       <c r="C35" t="n">
-        <v>219.6314833488969</v>
+        <v>219.6314833488968</v>
       </c>
       <c r="D35" t="n">
-        <v>209.0416331985723</v>
+        <v>209.0416331985722</v>
       </c>
       <c r="E35" t="n">
         <v>236.2889616501511</v>
       </c>
       <c r="F35" t="n">
-        <v>261.2346373196008</v>
+        <v>261.2346373196007</v>
       </c>
       <c r="G35" t="n">
-        <v>266.8800384220805</v>
+        <v>266.8800384220804</v>
       </c>
       <c r="H35" t="n">
         <v>165.349500609852</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>65.27934122996365</v>
+        <v>65.27934122996362</v>
       </c>
       <c r="U35" t="n">
         <v>105.4817412320503</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S36" t="n">
         <v>144.0419631757947</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.19057175982661</v>
+        <v>34.19057175982658</v>
       </c>
       <c r="C37" t="n">
-        <v>21.60541267651715</v>
+        <v>21.60541267651712</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>98.74653511206589</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>21.10197969071359</v>
+        <v>21.10197969071357</v>
       </c>
       <c r="H37" t="n">
-        <v>5.493543737778717</v>
+        <v>5.49354373777869</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>56.63307672503166</v>
+        <v>56.63307672503163</v>
       </c>
       <c r="T37" t="n">
-        <v>76.97356386573259</v>
+        <v>76.97356386573256</v>
       </c>
       <c r="U37" t="n">
-        <v>238.5635513904069</v>
+        <v>140.6095705028001</v>
       </c>
       <c r="V37" t="n">
-        <v>106.4962349017173</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>140.8815899144803</v>
       </c>
       <c r="X37" t="n">
-        <v>80.06824696692647</v>
+        <v>80.06824696692644</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.9432449299841</v>
+        <v>72.94324492998408</v>
       </c>
     </row>
     <row r="38">
@@ -3503,19 +3503,19 @@
         <v>237.0924332413699</v>
       </c>
       <c r="C38" t="n">
-        <v>219.6314833488969</v>
+        <v>219.6314833488968</v>
       </c>
       <c r="D38" t="n">
-        <v>209.0416331985723</v>
+        <v>209.0416331985722</v>
       </c>
       <c r="E38" t="n">
         <v>236.2889616501511</v>
       </c>
       <c r="F38" t="n">
-        <v>261.2346373196008</v>
+        <v>261.2346373196007</v>
       </c>
       <c r="G38" t="n">
-        <v>266.8800384220805</v>
+        <v>266.8800384220804</v>
       </c>
       <c r="H38" t="n">
         <v>165.349500609852</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>65.27934122996365</v>
+        <v>65.27934122996362</v>
       </c>
       <c r="U38" t="n">
         <v>105.4817412320503</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S39" t="n">
         <v>144.0419631757947</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.19057175982661</v>
+        <v>34.19057175982658</v>
       </c>
       <c r="C40" t="n">
-        <v>21.60541267651715</v>
+        <v>21.60541267651712</v>
       </c>
       <c r="D40" t="n">
-        <v>2.97406459610167</v>
+        <v>2.974064596101641</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7925542244584847</v>
+        <v>0.7925542244584562</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>21.10197969071359</v>
+        <v>166.7433881128243</v>
       </c>
       <c r="H40" t="n">
-        <v>5.493543737778717</v>
+        <v>5.49354373777869</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>121.1971522780048</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>202.2744851471423</v>
+        <v>56.63307672503163</v>
       </c>
       <c r="T40" t="n">
-        <v>199.3718008974455</v>
+        <v>174.9275447533399</v>
       </c>
       <c r="U40" t="n">
-        <v>140.6095705028001</v>
+        <v>286.2509789249108</v>
       </c>
       <c r="V40" t="n">
         <v>106.4962349017173</v>
@@ -3724,10 +3724,10 @@
         <v>140.8815899144803</v>
       </c>
       <c r="X40" t="n">
-        <v>80.06824696692647</v>
+        <v>80.06824696692644</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.9432449299841</v>
+        <v>72.94324492998408</v>
       </c>
     </row>
     <row r="41">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S42" t="n">
         <v>144.0419631757947</v>
@@ -3898,25 +3898,25 @@
         <v>34.19057175982661</v>
       </c>
       <c r="C43" t="n">
-        <v>21.60541267651715</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>2.97406459610167</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7925542244584847</v>
+        <v>5.258787606720744</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>119.2763209774999</v>
+        <v>21.1019796907136</v>
       </c>
       <c r="H43" t="n">
-        <v>5.493543737778717</v>
+        <v>5.493543737778719</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>117.9320036494506</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S43" t="n">
         <v>56.63307672503166</v>
@@ -3964,7 +3964,7 @@
         <v>80.06824696692647</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>72.9432449299841</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>237.0924332413699</v>
+        <v>237.0924332413698</v>
       </c>
       <c r="C44" t="n">
-        <v>219.6314833488969</v>
+        <v>219.6314833488968</v>
       </c>
       <c r="D44" t="n">
-        <v>209.0416331985723</v>
+        <v>209.0416331985722</v>
       </c>
       <c r="E44" t="n">
-        <v>236.2889616501511</v>
+        <v>236.288961650151</v>
       </c>
       <c r="F44" t="n">
-        <v>261.2346373196008</v>
+        <v>261.2346373196007</v>
       </c>
       <c r="G44" t="n">
-        <v>266.8800384220805</v>
+        <v>266.8800384220804</v>
       </c>
       <c r="H44" t="n">
-        <v>165.349500609852</v>
+        <v>165.3495006098519</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>65.27934122996365</v>
+        <v>65.27934122996356</v>
       </c>
       <c r="U44" t="n">
-        <v>105.4817412320503</v>
+        <v>105.4817412320505</v>
       </c>
       <c r="V44" t="n">
-        <v>182.1108500480242</v>
+        <v>182.1108500480241</v>
       </c>
       <c r="W44" t="n">
-        <v>203.5995602953023</v>
+        <v>203.5995602953022</v>
       </c>
       <c r="X44" t="n">
         <v>224.0896922563583</v>
       </c>
       <c r="Y44" t="n">
-        <v>240.5965302339429</v>
+        <v>240.5965302339428</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S45" t="n">
         <v>144.0419631757947</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.19057175982661</v>
+        <v>34.19057175982653</v>
       </c>
       <c r="C46" t="n">
-        <v>21.60541267651715</v>
+        <v>21.60541267651706</v>
       </c>
       <c r="D46" t="n">
-        <v>2.97406459610167</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7925542244584847</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.95398088760811</v>
       </c>
       <c r="G46" t="n">
-        <v>21.10197969071359</v>
+        <v>21.10197969071351</v>
       </c>
       <c r="H46" t="n">
-        <v>5.493543737778717</v>
+        <v>5.493543737778634</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>56.63307672503166</v>
+        <v>56.63307672503157</v>
       </c>
       <c r="T46" t="n">
-        <v>76.97356386573259</v>
+        <v>76.9735638657325</v>
       </c>
       <c r="U46" t="n">
-        <v>140.6095705028001</v>
+        <v>140.6095705028</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>106.4962349017172</v>
       </c>
       <c r="W46" t="n">
-        <v>238.8355708020873</v>
+        <v>140.8815899144802</v>
       </c>
       <c r="X46" t="n">
-        <v>80.06824696692647</v>
+        <v>80.06824696692638</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>72.94324492998402</v>
       </c>
     </row>
   </sheetData>
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1128.079031059589</v>
+        <v>1555.441692794115</v>
       </c>
       <c r="C11" t="n">
-        <v>839.3500608132254</v>
+        <v>1555.441692794115</v>
       </c>
       <c r="D11" t="n">
-        <v>561.3179089005223</v>
+        <v>1277.409540881412</v>
       </c>
       <c r="E11" t="n">
-        <v>561.3179089005223</v>
+        <v>971.8548349772151</v>
       </c>
       <c r="F11" t="n">
-        <v>561.3179089005223</v>
+        <v>641.102476881655</v>
       </c>
       <c r="G11" t="n">
-        <v>224.863125448922</v>
+        <v>304.6476934300551</v>
       </c>
       <c r="H11" t="n">
-        <v>46.68944337289493</v>
+        <v>70.74900877868622</v>
       </c>
       <c r="I11" t="n">
         <v>46.68944337289493</v>
       </c>
       <c r="J11" t="n">
-        <v>268.5576303040251</v>
+        <v>268.5576303040249</v>
       </c>
       <c r="K11" t="n">
-        <v>721.8253333671895</v>
+        <v>579.9337098920176</v>
       </c>
       <c r="L11" t="n">
-        <v>992.7606196417105</v>
+        <v>781.0444013511634</v>
       </c>
       <c r="M11" t="n">
-        <v>1248.204451215849</v>
+        <v>1036.488232925301</v>
       </c>
       <c r="N11" t="n">
-        <v>1512.395439421993</v>
+        <v>1300.679221131446</v>
       </c>
       <c r="O11" t="n">
-        <v>2090.177301161568</v>
+        <v>1536.812018472639</v>
       </c>
       <c r="P11" t="n">
-        <v>2257.210179707975</v>
+        <v>2022.425618108813</v>
       </c>
       <c r="Q11" t="n">
-        <v>2334.472168644746</v>
+        <v>2309.87944779889</v>
       </c>
       <c r="R11" t="n">
         <v>2334.472168644746</v>
@@ -5069,22 +5069,22 @@
         <v>2267.593181579086</v>
       </c>
       <c r="T11" t="n">
-        <v>2134.775465998311</v>
+        <v>2267.593181579086</v>
       </c>
       <c r="U11" t="n">
-        <v>1961.349265566944</v>
+        <v>2267.593181579086</v>
       </c>
       <c r="V11" t="n">
-        <v>1710.51992491742</v>
+        <v>2267.593181579086</v>
       </c>
       <c r="W11" t="n">
-        <v>1437.984816341354</v>
+        <v>2158.579689642911</v>
       </c>
       <c r="X11" t="n">
-        <v>1437.984816341354</v>
+        <v>1865.347478075879</v>
       </c>
       <c r="Y11" t="n">
-        <v>1128.079031059589</v>
+        <v>1555.441692794115</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>683.6639029506455</v>
+        <v>831.6948606655816</v>
       </c>
       <c r="C12" t="n">
-        <v>577.0082846904072</v>
+        <v>657.2418313844546</v>
       </c>
       <c r="D12" t="n">
-        <v>508.3074217232034</v>
+        <v>508.3074217232033</v>
       </c>
       <c r="E12" t="n">
-        <v>349.0699667177479</v>
+        <v>349.0699667177478</v>
       </c>
       <c r="F12" t="n">
-        <v>282.7689554386803</v>
+        <v>202.5354087446328</v>
       </c>
       <c r="G12" t="n">
-        <v>145.5412832555495</v>
+        <v>65.30773656150201</v>
       </c>
       <c r="H12" t="n">
         <v>46.68944337289493</v>
@@ -5118,19 +5118,19 @@
         <v>46.68944337289493</v>
       </c>
       <c r="J12" t="n">
-        <v>185.1392358768292</v>
+        <v>60.30911088982444</v>
       </c>
       <c r="K12" t="n">
-        <v>548.3928263393643</v>
+        <v>423.5627013523596</v>
       </c>
       <c r="L12" t="n">
-        <v>917.9910073910048</v>
+        <v>606.2744364430104</v>
       </c>
       <c r="M12" t="n">
-        <v>1150.56385245827</v>
+        <v>838.8472815102757</v>
       </c>
       <c r="N12" t="n">
-        <v>1403.700853608114</v>
+        <v>1091.98428266012</v>
       </c>
       <c r="O12" t="n">
         <v>1613.051960134166</v>
@@ -5145,25 +5145,25 @@
         <v>2326.629995268227</v>
       </c>
       <c r="S12" t="n">
-        <v>2181.133062767424</v>
+        <v>2261.366609461471</v>
       </c>
       <c r="T12" t="n">
-        <v>1985.005230504607</v>
+        <v>2133.036188219543</v>
       </c>
       <c r="U12" t="n">
-        <v>1756.880503901144</v>
+        <v>1904.91146161608</v>
       </c>
       <c r="V12" t="n">
-        <v>1521.728395669402</v>
+        <v>1669.759353384338</v>
       </c>
       <c r="W12" t="n">
-        <v>1267.4910389412</v>
+        <v>1415.521996656136</v>
       </c>
       <c r="X12" t="n">
-        <v>1059.639538735667</v>
+        <v>1207.670496450603</v>
       </c>
       <c r="Y12" t="n">
-        <v>851.8792399707136</v>
+        <v>999.9101976856496</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>539.1229485433557</v>
+        <v>539.1229485433555</v>
       </c>
       <c r="C13" t="n">
-        <v>450.4203123094963</v>
+        <v>450.420312309496</v>
       </c>
       <c r="D13" t="n">
-        <v>380.5372195912079</v>
+        <v>380.5372195912078</v>
       </c>
       <c r="E13" t="n">
-        <v>312.8576727028623</v>
+        <v>312.8576727028621</v>
       </c>
       <c r="F13" t="n">
         <v>246.2012718989993</v>
@@ -5191,7 +5191,7 @@
         <v>158.0071538326182</v>
       </c>
       <c r="H13" t="n">
-        <v>85.57913268839351</v>
+        <v>85.57913268839354</v>
       </c>
       <c r="I13" t="n">
         <v>46.68944337289493</v>
@@ -5200,13 +5200,13 @@
         <v>120.2234082279187</v>
       </c>
       <c r="K13" t="n">
-        <v>320.3114555080076</v>
+        <v>320.3114555080081</v>
       </c>
       <c r="L13" t="n">
-        <v>609.8904447105126</v>
+        <v>609.8904447105131</v>
       </c>
       <c r="M13" t="n">
-        <v>921.3253246538482</v>
+        <v>921.3253246538485</v>
       </c>
       <c r="N13" t="n">
         <v>1232.659405364007</v>
@@ -5218,7 +5218,7 @@
         <v>1735.537777472236</v>
       </c>
       <c r="Q13" t="n">
-        <v>1832.298320439747</v>
+        <v>1832.298320439746</v>
       </c>
       <c r="R13" t="n">
         <v>1790.110501196415</v>
@@ -5233,16 +5233,16 @@
         <v>1312.487468187753</v>
       </c>
       <c r="V13" t="n">
-        <v>1138.036526675914</v>
+        <v>1138.036526675913</v>
       </c>
       <c r="W13" t="n">
-        <v>928.8529033330004</v>
+        <v>928.8529033330002</v>
       </c>
       <c r="X13" t="n">
-        <v>781.0968991290306</v>
+        <v>781.0968991290304</v>
       </c>
       <c r="Y13" t="n">
-        <v>640.537866679548</v>
+        <v>640.5378666795477</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1462.338555131573</v>
+        <v>919.0052714361591</v>
       </c>
       <c r="C14" t="n">
-        <v>1173.609584885209</v>
+        <v>630.2763011897948</v>
       </c>
       <c r="D14" t="n">
-        <v>1173.609584885209</v>
+        <v>352.2441492770917</v>
       </c>
       <c r="E14" t="n">
-        <v>868.0548789810123</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="F14" t="n">
-        <v>537.3025208854522</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="G14" t="n">
-        <v>200.8477374338519</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="H14" t="n">
         <v>46.68944337289493</v>
@@ -5276,28 +5276,28 @@
         <v>46.68944337289493</v>
       </c>
       <c r="J14" t="n">
-        <v>268.5576303040251</v>
+        <v>268.557630304025</v>
       </c>
       <c r="K14" t="n">
-        <v>579.933709892017</v>
+        <v>721.8253333671894</v>
       </c>
       <c r="L14" t="n">
-        <v>781.0444013511628</v>
+        <v>922.9360248263351</v>
       </c>
       <c r="M14" t="n">
-        <v>1036.488232925301</v>
+        <v>1178.379856400473</v>
       </c>
       <c r="N14" t="n">
-        <v>1300.679221131446</v>
+        <v>1442.570844606618</v>
       </c>
       <c r="O14" t="n">
-        <v>1536.812018472638</v>
+        <v>1678.70364194781</v>
       </c>
       <c r="P14" t="n">
-        <v>2022.425618108813</v>
+        <v>2047.018338954669</v>
       </c>
       <c r="Q14" t="n">
-        <v>2309.87944779889</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R14" t="n">
         <v>2334.472168644746</v>
@@ -5306,22 +5306,22 @@
         <v>2334.472168644746</v>
       </c>
       <c r="T14" t="n">
-        <v>2334.472168644746</v>
+        <v>2201.654453063971</v>
       </c>
       <c r="U14" t="n">
-        <v>2334.472168644746</v>
+        <v>2028.228252632603</v>
       </c>
       <c r="V14" t="n">
-        <v>2334.472168644746</v>
+        <v>1807.812458664064</v>
       </c>
       <c r="W14" t="n">
-        <v>2061.93706006868</v>
+        <v>1535.277350087998</v>
       </c>
       <c r="X14" t="n">
-        <v>1768.704848501647</v>
+        <v>1535.277350087998</v>
       </c>
       <c r="Y14" t="n">
-        <v>1768.704848501647</v>
+        <v>1225.371564806233</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>844.1309963387405</v>
+        <v>831.6948606655816</v>
       </c>
       <c r="C15" t="n">
-        <v>669.6779670576135</v>
+        <v>657.2418313844546</v>
       </c>
       <c r="D15" t="n">
-        <v>520.7435573963622</v>
+        <v>508.3074217232034</v>
       </c>
       <c r="E15" t="n">
-        <v>361.5061023909067</v>
+        <v>349.0699667177479</v>
       </c>
       <c r="F15" t="n">
-        <v>214.9715444177917</v>
+        <v>202.5354087446328</v>
       </c>
       <c r="G15" t="n">
-        <v>157.9774189287084</v>
+        <v>65.30773656150204</v>
       </c>
       <c r="H15" t="n">
-        <v>85.23577037147686</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="I15" t="n">
         <v>46.68944337289493</v>
       </c>
       <c r="J15" t="n">
-        <v>60.30911088982447</v>
+        <v>185.1392358768292</v>
       </c>
       <c r="K15" t="n">
-        <v>423.5627013523596</v>
+        <v>548.3928263393643</v>
       </c>
       <c r="L15" t="n">
-        <v>606.2744364430105</v>
+        <v>1098.23650328044</v>
       </c>
       <c r="M15" t="n">
-        <v>1184.056298182585</v>
+        <v>1330.809348347705</v>
       </c>
       <c r="N15" t="n">
-        <v>1437.193299332429</v>
+        <v>1718.978994561652</v>
       </c>
       <c r="O15" t="n">
-        <v>1646.544405858481</v>
+        <v>1928.330101087704</v>
       </c>
       <c r="P15" t="n">
         <v>2077.01975455116</v>
@@ -5382,25 +5382,25 @@
         <v>2326.629995268227</v>
       </c>
       <c r="S15" t="n">
-        <v>2261.366609461471</v>
+        <v>2248.930473788312</v>
       </c>
       <c r="T15" t="n">
-        <v>2145.472323892702</v>
+        <v>2133.036188219543</v>
       </c>
       <c r="U15" t="n">
-        <v>1917.34759728924</v>
+        <v>1904.91146161608</v>
       </c>
       <c r="V15" t="n">
-        <v>1682.195489057497</v>
+        <v>1669.759353384338</v>
       </c>
       <c r="W15" t="n">
-        <v>1427.958132329295</v>
+        <v>1415.521996656136</v>
       </c>
       <c r="X15" t="n">
-        <v>1220.106632123762</v>
+        <v>1207.670496450603</v>
       </c>
       <c r="Y15" t="n">
-        <v>1012.346333358809</v>
+        <v>999.9101976856496</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>539.1229485433557</v>
+        <v>539.1229485433555</v>
       </c>
       <c r="C16" t="n">
-        <v>450.4203123094962</v>
+        <v>450.4203123094961</v>
       </c>
       <c r="D16" t="n">
-        <v>380.5372195912079</v>
+        <v>380.5372195912078</v>
       </c>
       <c r="E16" t="n">
-        <v>312.8576727028623</v>
+        <v>312.8576727028621</v>
       </c>
       <c r="F16" t="n">
-        <v>246.2012718989993</v>
+        <v>246.2012718989992</v>
       </c>
       <c r="G16" t="n">
-        <v>158.0071538326182</v>
+        <v>158.0071538326181</v>
       </c>
       <c r="H16" t="n">
-        <v>85.57913268839351</v>
+        <v>85.57913268839366</v>
       </c>
       <c r="I16" t="n">
         <v>46.68944337289493</v>
@@ -5440,7 +5440,7 @@
         <v>320.3114555080078</v>
       </c>
       <c r="L16" t="n">
-        <v>609.8904447105128</v>
+        <v>609.8904447105127</v>
       </c>
       <c r="M16" t="n">
         <v>921.3253246538484</v>
@@ -5473,13 +5473,13 @@
         <v>1138.036526675914</v>
       </c>
       <c r="W16" t="n">
-        <v>928.8529033330005</v>
+        <v>928.8529033330003</v>
       </c>
       <c r="X16" t="n">
-        <v>781.0968991290306</v>
+        <v>781.0968991290304</v>
       </c>
       <c r="Y16" t="n">
-        <v>640.537866679548</v>
+        <v>640.5378666795477</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1156.994340046476</v>
+        <v>1156.994340046475</v>
       </c>
       <c r="C17" t="n">
-        <v>948.4989164941589</v>
+        <v>1130.214393918088</v>
       </c>
       <c r="D17" t="n">
-        <v>750.7003112755033</v>
+        <v>932.4157886994325</v>
       </c>
       <c r="E17" t="n">
-        <v>707.0946294892825</v>
+        <v>707.0946294892832</v>
       </c>
       <c r="F17" t="n">
-        <v>456.5758180877698</v>
+        <v>456.5758180877706</v>
       </c>
       <c r="G17" t="n">
         <v>200.3545813302169</v>
@@ -5516,25 +5516,25 @@
         <v>101.151981283672</v>
       </c>
       <c r="K17" t="n">
-        <v>233.5157259013834</v>
+        <v>233.5157259013833</v>
       </c>
       <c r="L17" t="n">
-        <v>811.2975876409582</v>
+        <v>698.4807803412253</v>
       </c>
       <c r="M17" t="n">
-        <v>1066.741419215096</v>
+        <v>1276.2626420808</v>
       </c>
       <c r="N17" t="n">
-        <v>1330.932407421241</v>
+        <v>1854.044503820375</v>
       </c>
       <c r="O17" t="n">
-        <v>1908.714269160816</v>
+        <v>2090.177301161568</v>
       </c>
       <c r="P17" t="n">
-        <v>2075.747147707223</v>
+        <v>2257.210179707975</v>
       </c>
       <c r="Q17" t="n">
-        <v>2309.87944779889</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R17" t="n">
         <v>2334.472168644746</v>
@@ -5546,19 +5546,19 @@
         <v>2281.887999758019</v>
       </c>
       <c r="U17" t="n">
-        <v>2188.6953460207</v>
+        <v>2188.695346020699</v>
       </c>
       <c r="V17" t="n">
-        <v>2018.099552065224</v>
+        <v>2018.099552065223</v>
       </c>
       <c r="W17" t="n">
-        <v>1825.797990183205</v>
+        <v>1825.797990183204</v>
       </c>
       <c r="X17" t="n">
-        <v>1612.79932531022</v>
+        <v>1612.799325310219</v>
       </c>
       <c r="Y17" t="n">
-        <v>1383.127086722503</v>
+        <v>1383.127086722502</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>844.1309963387405</v>
+        <v>837.003008827968</v>
       </c>
       <c r="C18" t="n">
-        <v>737.475378078502</v>
+        <v>662.549979546841</v>
       </c>
       <c r="D18" t="n">
-        <v>588.5409684172507</v>
+        <v>513.6155698855897</v>
       </c>
       <c r="E18" t="n">
-        <v>429.3035134117953</v>
+        <v>354.3781148801342</v>
       </c>
       <c r="F18" t="n">
-        <v>282.7689554386803</v>
+        <v>207.8435569070192</v>
       </c>
       <c r="G18" t="n">
-        <v>145.5412832555495</v>
+        <v>70.6158847238884</v>
       </c>
       <c r="H18" t="n">
         <v>46.68944337289493</v>
@@ -5592,52 +5592,52 @@
         <v>46.68944337289493</v>
       </c>
       <c r="J18" t="n">
-        <v>185.1392358768292</v>
+        <v>60.30911088982444</v>
       </c>
       <c r="K18" t="n">
-        <v>548.3928263393643</v>
+        <v>161.7421167099068</v>
       </c>
       <c r="L18" t="n">
-        <v>917.9910073910048</v>
+        <v>402.9610307274704</v>
       </c>
       <c r="M18" t="n">
-        <v>1150.56385245827</v>
+        <v>980.7428924670452</v>
       </c>
       <c r="N18" t="n">
-        <v>1403.700853608114</v>
+        <v>1558.52475420662</v>
       </c>
       <c r="O18" t="n">
-        <v>1613.051960134166</v>
+        <v>2136.306615946195</v>
       </c>
       <c r="P18" t="n">
-        <v>2077.01975455116</v>
+        <v>2284.996269409651</v>
       </c>
       <c r="Q18" t="n">
         <v>2334.472168644746</v>
       </c>
       <c r="R18" t="n">
-        <v>2326.629995268227</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="S18" t="n">
-        <v>2181.133062767424</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="T18" t="n">
-        <v>2145.472323892702</v>
+        <v>2138.34433638193</v>
       </c>
       <c r="U18" t="n">
-        <v>1917.34759728924</v>
+        <v>1910.219609778467</v>
       </c>
       <c r="V18" t="n">
-        <v>1682.195489057497</v>
+        <v>1675.067501546724</v>
       </c>
       <c r="W18" t="n">
-        <v>1427.958132329295</v>
+        <v>1420.830144818523</v>
       </c>
       <c r="X18" t="n">
-        <v>1220.106632123762</v>
+        <v>1212.97864461299</v>
       </c>
       <c r="Y18" t="n">
-        <v>1012.346333358809</v>
+        <v>1005.218345848036</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>438.7197892920972</v>
+        <v>223.5861976731355</v>
       </c>
       <c r="C19" t="n">
-        <v>430.2506997522852</v>
+        <v>215.1171081333235</v>
       </c>
       <c r="D19" t="n">
-        <v>430.2506997522852</v>
+        <v>215.1171081333235</v>
       </c>
       <c r="E19" t="n">
-        <v>282.3376061698921</v>
+        <v>215.1171081333235</v>
       </c>
       <c r="F19" t="n">
-        <v>282.3376061698921</v>
+        <v>215.1171081333235</v>
       </c>
       <c r="G19" t="n">
-        <v>113.9099414094635</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="H19" t="n">
         <v>46.68944337289493</v>
@@ -5686,7 +5686,7 @@
         <v>844.5778440496397</v>
       </c>
       <c r="O19" t="n">
-        <v>1043.495058868663</v>
+        <v>1043.495058868662</v>
       </c>
       <c r="P19" t="n">
         <v>1190.182417928197</v>
@@ -5695,28 +5695,28 @@
         <v>1208.306061780872</v>
       </c>
       <c r="R19" t="n">
-        <v>1208.306061780872</v>
+        <v>1153.639563550005</v>
       </c>
       <c r="S19" t="n">
-        <v>1003.988400016082</v>
+        <v>1109.78899517331</v>
       </c>
       <c r="T19" t="n">
-        <v>939.5918850326177</v>
+        <v>884.9253868017508</v>
       </c>
       <c r="U19" t="n">
-        <v>810.9165754662572</v>
+        <v>756.2500772353904</v>
       </c>
       <c r="V19" t="n">
-        <v>716.6991806484652</v>
+        <v>662.0326824175985</v>
       </c>
       <c r="W19" t="n">
-        <v>587.7491039995996</v>
+        <v>533.0826057687328</v>
       </c>
       <c r="X19" t="n">
-        <v>520.2266464896771</v>
+        <v>465.5601482588104</v>
       </c>
       <c r="Y19" t="n">
-        <v>459.901160734242</v>
+        <v>244.7675691152803</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>948.498916494158</v>
       </c>
       <c r="D20" t="n">
-        <v>750.7003112755024</v>
+        <v>750.7003112755026</v>
       </c>
       <c r="E20" t="n">
-        <v>707.0946294892823</v>
+        <v>707.0946294892822</v>
       </c>
       <c r="F20" t="n">
-        <v>456.5758180877696</v>
+        <v>456.5758180877695</v>
       </c>
       <c r="G20" t="n">
         <v>200.3545813302169</v>
@@ -5750,25 +5750,25 @@
         <v>46.68944337289493</v>
       </c>
       <c r="J20" t="n">
-        <v>268.5576303040251</v>
+        <v>101.151981283672</v>
       </c>
       <c r="K20" t="n">
-        <v>604.5264307378731</v>
+        <v>233.5157259013833</v>
       </c>
       <c r="L20" t="n">
-        <v>805.6371221970189</v>
+        <v>698.4807803412253</v>
       </c>
       <c r="M20" t="n">
-        <v>1061.080953771157</v>
+        <v>1276.2626420808</v>
       </c>
       <c r="N20" t="n">
-        <v>1325.271941977302</v>
+        <v>1854.044503820375</v>
       </c>
       <c r="O20" t="n">
-        <v>1561.404739318494</v>
+        <v>2090.177301161568</v>
       </c>
       <c r="P20" t="n">
-        <v>2047.018338954669</v>
+        <v>2257.210179707975</v>
       </c>
       <c r="Q20" t="n">
         <v>2334.472168644746</v>
@@ -5786,13 +5786,13 @@
         <v>2188.695346020699</v>
       </c>
       <c r="V20" t="n">
-        <v>2018.099552065223</v>
+        <v>2018.099552065222</v>
       </c>
       <c r="W20" t="n">
-        <v>1825.797990183204</v>
+        <v>1825.797990183203</v>
       </c>
       <c r="X20" t="n">
-        <v>1612.799325310219</v>
+        <v>1612.799325310218</v>
       </c>
       <c r="Y20" t="n">
         <v>1383.127086722502</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>950.4747343582111</v>
+        <v>691.5060763271654</v>
       </c>
       <c r="C21" t="n">
-        <v>776.0217050770841</v>
+        <v>517.0530470460384</v>
       </c>
       <c r="D21" t="n">
-        <v>627.0872954158328</v>
+        <v>368.1186373847871</v>
       </c>
       <c r="E21" t="n">
-        <v>467.8498404103773</v>
+        <v>208.8811823793316</v>
       </c>
       <c r="F21" t="n">
-        <v>321.3152824372622</v>
+        <v>62.34662440621659</v>
       </c>
       <c r="G21" t="n">
-        <v>184.0876102541314</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="H21" t="n">
-        <v>85.23577037147686</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="I21" t="n">
         <v>46.68944337289493</v>
       </c>
       <c r="J21" t="n">
-        <v>185.1392358768292</v>
+        <v>60.30911088982444</v>
       </c>
       <c r="K21" t="n">
-        <v>548.3928263393643</v>
+        <v>220.2492956368196</v>
       </c>
       <c r="L21" t="n">
-        <v>731.1045614300152</v>
+        <v>402.9610307274704</v>
       </c>
       <c r="M21" t="n">
-        <v>963.6774064972806</v>
+        <v>980.7428924670452</v>
       </c>
       <c r="N21" t="n">
-        <v>1216.814407647125</v>
+        <v>1558.52475420662</v>
       </c>
       <c r="O21" t="n">
-        <v>1613.051960134166</v>
+        <v>2136.306615946195</v>
       </c>
       <c r="P21" t="n">
-        <v>2077.01975455116</v>
+        <v>2284.996269409651</v>
       </c>
       <c r="Q21" t="n">
         <v>2334.472168644746</v>
       </c>
       <c r="R21" t="n">
-        <v>2326.629995268227</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="S21" t="n">
-        <v>2326.629995268227</v>
+        <v>2188.975236143944</v>
       </c>
       <c r="T21" t="n">
-        <v>2251.816061912173</v>
+        <v>1992.847403881127</v>
       </c>
       <c r="U21" t="n">
-        <v>2023.69133530871</v>
+        <v>1764.722677277664</v>
       </c>
       <c r="V21" t="n">
-        <v>1788.539227076967</v>
+        <v>1529.570569045922</v>
       </c>
       <c r="W21" t="n">
-        <v>1534.301870348766</v>
+        <v>1275.33321231772</v>
       </c>
       <c r="X21" t="n">
-        <v>1326.450370143233</v>
+        <v>1067.481712112187</v>
       </c>
       <c r="Y21" t="n">
-        <v>1118.690071378279</v>
+        <v>859.7214133472335</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>599.1868826801921</v>
+        <v>278.2526959040021</v>
       </c>
       <c r="C22" t="n">
-        <v>590.7177931403801</v>
+        <v>269.7836063641901</v>
       </c>
       <c r="D22" t="n">
-        <v>590.7177931403801</v>
+        <v>201.5399622431389</v>
       </c>
       <c r="E22" t="n">
-        <v>519.8751679647739</v>
+        <v>201.5399622431389</v>
       </c>
       <c r="F22" t="n">
-        <v>372.9852204668636</v>
+        <v>54.65001474522857</v>
       </c>
       <c r="G22" t="n">
-        <v>204.557555706435</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="H22" t="n">
-        <v>51.8959878681629</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="I22" t="n">
-        <v>51.8959878681629</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="J22" t="n">
         <v>46.68944337289493</v>
@@ -5923,7 +5923,7 @@
         <v>844.5778440496397</v>
       </c>
       <c r="O22" t="n">
-        <v>1043.495058868663</v>
+        <v>1043.495058868662</v>
       </c>
       <c r="P22" t="n">
         <v>1190.182417928197</v>
@@ -5935,25 +5935,25 @@
         <v>1208.306061780872</v>
       </c>
       <c r="S22" t="n">
-        <v>1164.455493404177</v>
+        <v>1164.455493404176</v>
       </c>
       <c r="T22" t="n">
-        <v>1100.058978420713</v>
+        <v>1100.058978420712</v>
       </c>
       <c r="U22" t="n">
-        <v>971.3836688543522</v>
+        <v>971.383668854352</v>
       </c>
       <c r="V22" t="n">
-        <v>877.1662740365603</v>
+        <v>877.16627403656</v>
       </c>
       <c r="W22" t="n">
-        <v>748.2161973876946</v>
+        <v>587.7491039995994</v>
       </c>
       <c r="X22" t="n">
-        <v>680.6937398777721</v>
+        <v>520.2266464896769</v>
       </c>
       <c r="Y22" t="n">
-        <v>620.3682541223369</v>
+        <v>459.9011607342417</v>
       </c>
     </row>
     <row r="23">
@@ -5969,52 +5969,52 @@
         <v>1133.922873049188</v>
       </c>
       <c r="D23" t="n">
-        <v>936.1242678305325</v>
+        <v>936.1242678305322</v>
       </c>
       <c r="E23" t="n">
-        <v>710.8031086203832</v>
+        <v>710.8031086203829</v>
       </c>
       <c r="F23" t="n">
-        <v>460.2842972188705</v>
+        <v>460.2842972188703</v>
       </c>
       <c r="G23" t="n">
         <v>204.0630604613175</v>
       </c>
       <c r="H23" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399551</v>
       </c>
       <c r="I23" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399551</v>
       </c>
       <c r="J23" t="n">
-        <v>104.8604604147726</v>
+        <v>272.2661094351255</v>
       </c>
       <c r="K23" t="n">
-        <v>237.224205032484</v>
+        <v>725.53381249829</v>
       </c>
       <c r="L23" t="n">
-        <v>767.5271575556592</v>
+        <v>926.6445039574357</v>
       </c>
       <c r="M23" t="n">
-        <v>1391.201448542604</v>
+        <v>1182.088335531574</v>
       </c>
       <c r="N23" t="n">
-        <v>2014.875739529548</v>
+        <v>1446.279323737718</v>
       </c>
       <c r="O23" t="n">
-        <v>2251.008536870741</v>
+        <v>2059.404300529029</v>
       </c>
       <c r="P23" t="n">
-        <v>2418.041415417148</v>
+        <v>2232.442295509698</v>
       </c>
       <c r="Q23" t="n">
-        <v>2495.30340435392</v>
+        <v>2519.896125199775</v>
       </c>
       <c r="R23" t="n">
-        <v>2519.896125199776</v>
+        <v>2519.896125199775</v>
       </c>
       <c r="S23" t="n">
-        <v>2519.896125199776</v>
+        <v>2519.896125199775</v>
       </c>
       <c r="T23" t="n">
         <v>2467.311956313048</v>
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>954.1832134893115</v>
+        <v>869.0878595056745</v>
       </c>
       <c r="C24" t="n">
-        <v>779.7301842081845</v>
+        <v>694.6348302245475</v>
       </c>
       <c r="D24" t="n">
-        <v>630.7957745469332</v>
+        <v>545.7004205632962</v>
       </c>
       <c r="E24" t="n">
-        <v>471.5583195414778</v>
+        <v>386.4629655578407</v>
       </c>
       <c r="F24" t="n">
-        <v>325.0237615683628</v>
+        <v>239.9284075847257</v>
       </c>
       <c r="G24" t="n">
-        <v>187.796089385232</v>
+        <v>102.7007354015949</v>
       </c>
       <c r="H24" t="n">
-        <v>88.94424950257743</v>
+        <v>50.39792250399551</v>
       </c>
       <c r="I24" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399551</v>
       </c>
       <c r="J24" t="n">
-        <v>64.01759002092506</v>
+        <v>188.8477150079298</v>
       </c>
       <c r="K24" t="n">
-        <v>427.2711804834602</v>
+        <v>552.1013054704649</v>
       </c>
       <c r="L24" t="n">
-        <v>977.1148574245356</v>
+        <v>1101.94498241154</v>
       </c>
       <c r="M24" t="n">
-        <v>1209.687702491801</v>
+        <v>1335.987809013299</v>
       </c>
       <c r="N24" t="n">
-        <v>1462.824703641645</v>
+        <v>1589.124810163143</v>
       </c>
       <c r="O24" t="n">
         <v>1798.475916689195</v>
@@ -6087,31 +6087,31 @@
         <v>2262.443711106189</v>
       </c>
       <c r="Q24" t="n">
-        <v>2519.896125199776</v>
+        <v>2519.896125199775</v>
       </c>
       <c r="R24" t="n">
-        <v>2519.896125199776</v>
+        <v>2512.053951823255</v>
       </c>
       <c r="S24" t="n">
-        <v>2451.652373306089</v>
+        <v>2366.557019322453</v>
       </c>
       <c r="T24" t="n">
-        <v>2255.524541043273</v>
+        <v>2170.429187059636</v>
       </c>
       <c r="U24" t="n">
-        <v>2027.39981443981</v>
+        <v>1942.304460456174</v>
       </c>
       <c r="V24" t="n">
-        <v>1792.247706208068</v>
+        <v>1707.152352224431</v>
       </c>
       <c r="W24" t="n">
-        <v>1538.010349479866</v>
+        <v>1452.914995496229</v>
       </c>
       <c r="X24" t="n">
-        <v>1330.158849274333</v>
+        <v>1245.063495290696</v>
       </c>
       <c r="Y24" t="n">
-        <v>1122.398550509379</v>
+        <v>1037.303196525743</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>602.8953618112927</v>
+        <v>213.7175309140515</v>
       </c>
       <c r="C25" t="n">
-        <v>594.4262722714807</v>
+        <v>205.2484413742395</v>
       </c>
       <c r="D25" t="n">
-        <v>594.4262722714807</v>
+        <v>205.2484413742395</v>
       </c>
       <c r="E25" t="n">
-        <v>518.3771026006066</v>
+        <v>205.2484413742395</v>
       </c>
       <c r="F25" t="n">
-        <v>371.4871551026962</v>
+        <v>58.35849387632916</v>
       </c>
       <c r="G25" t="n">
-        <v>203.0594903422677</v>
+        <v>50.39792250399551</v>
       </c>
       <c r="H25" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399551</v>
       </c>
       <c r="I25" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399551</v>
       </c>
       <c r="J25" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399551</v>
       </c>
       <c r="K25" t="n">
         <v>171.8490706692489</v>
@@ -6184,13 +6184,13 @@
         <v>880.8747531676609</v>
       </c>
       <c r="W25" t="n">
-        <v>751.9246765187952</v>
+        <v>683.6810323977438</v>
       </c>
       <c r="X25" t="n">
-        <v>684.4022190088727</v>
+        <v>616.1585748878214</v>
       </c>
       <c r="Y25" t="n">
-        <v>624.0767332534375</v>
+        <v>395.3659957442912</v>
       </c>
     </row>
     <row r="26">
@@ -6209,40 +6209,40 @@
         <v>1304.260360002188</v>
       </c>
       <c r="E26" t="n">
-        <v>998.7056540979912</v>
+        <v>998.7056540979911</v>
       </c>
       <c r="F26" t="n">
         <v>667.9532960024312</v>
       </c>
       <c r="G26" t="n">
-        <v>331.4985125508319</v>
+        <v>331.498512550831</v>
       </c>
       <c r="H26" t="n">
-        <v>97.5998278994617</v>
+        <v>97.59982789946169</v>
       </c>
       <c r="I26" t="n">
         <v>73.5402624936704</v>
       </c>
       <c r="J26" t="n">
-        <v>295.4084494248004</v>
+        <v>128.0028004044474</v>
       </c>
       <c r="K26" t="n">
-        <v>597.1794726855828</v>
+        <v>488.7905923491198</v>
       </c>
       <c r="L26" t="n">
-        <v>1211.774766549674</v>
+        <v>1103.385886213212</v>
       </c>
       <c r="M26" t="n">
-        <v>1912.236996281717</v>
+        <v>1803.848115945254</v>
       </c>
       <c r="N26" t="n">
-        <v>2609.401439655725</v>
+        <v>2501.012559319262</v>
       </c>
       <c r="O26" t="n">
-        <v>3222.526416447036</v>
+        <v>3114.137536110573</v>
       </c>
       <c r="P26" t="n">
-        <v>3389.559294993443</v>
+        <v>3599.751135746748</v>
       </c>
       <c r="Q26" t="n">
         <v>3677.01312468352</v>
@@ -6312,13 +6312,13 @@
         <v>1125.087322401215</v>
       </c>
       <c r="M27" t="n">
-        <v>1357.66016746848</v>
+        <v>1357.660167468481</v>
       </c>
       <c r="N27" t="n">
         <v>1610.797168618325</v>
       </c>
       <c r="O27" t="n">
-        <v>1906.713610662507</v>
+        <v>1906.713610662506</v>
       </c>
       <c r="P27" t="n">
         <v>2370.681405079501</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>565.9737676641309</v>
+        <v>565.9737676641312</v>
       </c>
       <c r="C28" t="n">
-        <v>477.2711314302715</v>
+        <v>477.2711314302717</v>
       </c>
       <c r="D28" t="n">
-        <v>407.3880387119833</v>
+        <v>407.3880387119834</v>
       </c>
       <c r="E28" t="n">
-        <v>339.7084918236376</v>
+        <v>339.7084918236377</v>
       </c>
       <c r="F28" t="n">
-        <v>273.0520910197747</v>
+        <v>273.0520910197748</v>
       </c>
       <c r="G28" t="n">
-        <v>184.8579729533935</v>
+        <v>184.8579729533936</v>
       </c>
       <c r="H28" t="n">
-        <v>112.429951809169</v>
+        <v>112.4299518091688</v>
       </c>
       <c r="I28" t="n">
         <v>73.5402624936704</v>
@@ -6385,16 +6385,16 @@
         <v>147.0742273486941</v>
       </c>
       <c r="K28" t="n">
-        <v>347.1622746287831</v>
+        <v>347.1622746287834</v>
       </c>
       <c r="L28" t="n">
-        <v>636.7412638312881</v>
+        <v>636.7412638312882</v>
       </c>
       <c r="M28" t="n">
-        <v>948.1761437746236</v>
+        <v>948.1761437746241</v>
       </c>
       <c r="N28" t="n">
-        <v>1259.510224484782</v>
+        <v>1259.510224484783</v>
       </c>
       <c r="O28" t="n">
         <v>1537.064338418641</v>
@@ -6403,31 +6403,31 @@
         <v>1762.388596593011</v>
       </c>
       <c r="Q28" t="n">
-        <v>1859.149139560521</v>
+        <v>1859.149139560522</v>
       </c>
       <c r="R28" t="n">
-        <v>1816.96132031719</v>
+        <v>1816.961320317191</v>
       </c>
       <c r="S28" t="n">
-        <v>1692.877205246447</v>
+        <v>1692.877205246448</v>
       </c>
       <c r="T28" t="n">
-        <v>1548.247143568936</v>
+        <v>1548.247143568937</v>
       </c>
       <c r="U28" t="n">
-        <v>1339.338287308528</v>
+        <v>1339.338287308529</v>
       </c>
       <c r="V28" t="n">
         <v>1164.887345796689</v>
       </c>
       <c r="W28" t="n">
-        <v>955.7037224537755</v>
+        <v>955.7037224537761</v>
       </c>
       <c r="X28" t="n">
-        <v>807.9477182498056</v>
+        <v>807.9477182498063</v>
       </c>
       <c r="Y28" t="n">
-        <v>667.3886858003232</v>
+        <v>667.3886858003234</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1871.021482161256</v>
+        <v>1871.021482161255</v>
       </c>
       <c r="C29" t="n">
-        <v>1582.292511914892</v>
+        <v>1582.292511914891</v>
       </c>
       <c r="D29" t="n">
         <v>1304.260360002188</v>
       </c>
       <c r="E29" t="n">
-        <v>998.7056540979918</v>
+        <v>998.7056540979909</v>
       </c>
       <c r="F29" t="n">
-        <v>667.9532960024317</v>
+        <v>667.9532960024305</v>
       </c>
       <c r="G29" t="n">
-        <v>331.4985125508315</v>
+        <v>331.498512550831</v>
       </c>
       <c r="H29" t="n">
-        <v>97.59982789946164</v>
+        <v>97.59982789946179</v>
       </c>
       <c r="I29" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J29" t="n">
-        <v>128.0028004044475</v>
+        <v>128.0028004044474</v>
       </c>
       <c r="K29" t="n">
         <v>581.2705034676119</v>
@@ -6473,34 +6473,34 @@
         <v>1896.328027063746</v>
       </c>
       <c r="N29" t="n">
-        <v>2593.492470437755</v>
+        <v>2593.492470437754</v>
       </c>
       <c r="O29" t="n">
-        <v>3206.617447229066</v>
+        <v>3206.617447229065</v>
       </c>
       <c r="P29" t="n">
-        <v>3575.158414900892</v>
+        <v>3599.751135746749</v>
       </c>
       <c r="Q29" t="n">
-        <v>3652.420403837664</v>
+        <v>3677.01312468352</v>
       </c>
       <c r="R29" t="n">
         <v>3677.01312468352</v>
       </c>
       <c r="S29" t="n">
-        <v>3610.134137617859</v>
+        <v>3610.13413761786</v>
       </c>
       <c r="T29" t="n">
-        <v>3477.316422037084</v>
+        <v>3477.316422037085</v>
       </c>
       <c r="U29" t="n">
         <v>3303.890221605717</v>
       </c>
       <c r="V29" t="n">
-        <v>3053.060880956194</v>
+        <v>3053.060880956193</v>
       </c>
       <c r="W29" t="n">
-        <v>2780.525772380127</v>
+        <v>2780.525772380126</v>
       </c>
       <c r="X29" t="n">
         <v>2487.293560813094</v>
@@ -6537,7 +6537,7 @@
         <v>112.0865894922523</v>
       </c>
       <c r="I30" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J30" t="n">
         <v>211.9900549976047</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.9737676641324</v>
+        <v>565.9737676641297</v>
       </c>
       <c r="C31" t="n">
-        <v>477.2711314302729</v>
+        <v>477.2711314302701</v>
       </c>
       <c r="D31" t="n">
-        <v>407.3880387119847</v>
+        <v>407.3880387119817</v>
       </c>
       <c r="E31" t="n">
-        <v>339.708491823639</v>
+        <v>339.7084918236359</v>
       </c>
       <c r="F31" t="n">
-        <v>273.0520910197761</v>
+        <v>273.0520910197729</v>
       </c>
       <c r="G31" t="n">
-        <v>184.857972953395</v>
+        <v>184.8579729533917</v>
       </c>
       <c r="H31" t="n">
-        <v>112.4299518091701</v>
+        <v>112.4299518091672</v>
       </c>
       <c r="I31" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J31" t="n">
-        <v>147.0742273486942</v>
+        <v>147.074227348694</v>
       </c>
       <c r="K31" t="n">
-        <v>347.1622746287835</v>
+        <v>347.1622746287832</v>
       </c>
       <c r="L31" t="n">
-        <v>636.7412638312885</v>
+        <v>636.7412638312881</v>
       </c>
       <c r="M31" t="n">
-        <v>948.1761437746241</v>
+        <v>948.1761437746234</v>
       </c>
       <c r="N31" t="n">
-        <v>1259.510224484783</v>
+        <v>1259.510224484782</v>
       </c>
       <c r="O31" t="n">
-        <v>1537.064338418642</v>
+        <v>1537.06433841864</v>
       </c>
       <c r="P31" t="n">
-        <v>1762.388596593012</v>
+        <v>1762.38859659301</v>
       </c>
       <c r="Q31" t="n">
-        <v>1859.149139560523</v>
+        <v>1859.149139560521</v>
       </c>
       <c r="R31" t="n">
-        <v>1816.961320317192</v>
+        <v>1816.96132031719</v>
       </c>
       <c r="S31" t="n">
-        <v>1692.877205246449</v>
+        <v>1692.877205246447</v>
       </c>
       <c r="T31" t="n">
-        <v>1548.247143568938</v>
+        <v>1548.247143568935</v>
       </c>
       <c r="U31" t="n">
-        <v>1339.33828730853</v>
+        <v>1339.338287308527</v>
       </c>
       <c r="V31" t="n">
-        <v>1164.88734579669</v>
+        <v>1164.887345796688</v>
       </c>
       <c r="W31" t="n">
-        <v>955.7037224537771</v>
+        <v>955.7037224537746</v>
       </c>
       <c r="X31" t="n">
-        <v>807.9477182498073</v>
+        <v>807.9477182498047</v>
       </c>
       <c r="Y31" t="n">
-        <v>667.3886858003247</v>
+        <v>667.388685800322</v>
       </c>
     </row>
     <row r="32">
@@ -6680,58 +6680,58 @@
         <v>1582.292511914891</v>
       </c>
       <c r="D32" t="n">
-        <v>1304.260360002188</v>
+        <v>1304.260360002189</v>
       </c>
       <c r="E32" t="n">
-        <v>998.7056540979913</v>
+        <v>998.7056540979918</v>
       </c>
       <c r="F32" t="n">
-        <v>667.9532960024312</v>
+        <v>667.9532960024317</v>
       </c>
       <c r="G32" t="n">
-        <v>331.4985125508312</v>
+        <v>331.4985125508315</v>
       </c>
       <c r="H32" t="n">
-        <v>97.59982789946169</v>
+        <v>97.59982789946173</v>
       </c>
       <c r="I32" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J32" t="n">
-        <v>128.0028004044475</v>
+        <v>295.4084494248004</v>
       </c>
       <c r="K32" t="n">
-        <v>581.2705034676119</v>
+        <v>748.6761524879648</v>
       </c>
       <c r="L32" t="n">
-        <v>1195.865797331704</v>
+        <v>1363.271446352057</v>
       </c>
       <c r="M32" t="n">
-        <v>1896.328027063746</v>
+        <v>2063.733676084099</v>
       </c>
       <c r="N32" t="n">
-        <v>2593.492470437755</v>
+        <v>2760.898119458107</v>
       </c>
       <c r="O32" t="n">
-        <v>3206.617447229066</v>
+        <v>3374.023096249418</v>
       </c>
       <c r="P32" t="n">
-        <v>3599.751135746748</v>
+        <v>3541.055974795825</v>
       </c>
       <c r="Q32" t="n">
-        <v>3677.01312468352</v>
+        <v>3652.420403837664</v>
       </c>
       <c r="R32" t="n">
         <v>3677.01312468352</v>
       </c>
       <c r="S32" t="n">
-        <v>3610.134137617859</v>
+        <v>3610.13413761786</v>
       </c>
       <c r="T32" t="n">
-        <v>3477.316422037084</v>
+        <v>3477.316422037085</v>
       </c>
       <c r="U32" t="n">
-        <v>3303.890221605716</v>
+        <v>3303.890221605717</v>
       </c>
       <c r="V32" t="n">
         <v>3053.060880956193</v>
@@ -6774,22 +6774,22 @@
         <v>112.0865894922523</v>
       </c>
       <c r="I33" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J33" t="n">
-        <v>211.9900549976047</v>
+        <v>191.1383817660416</v>
       </c>
       <c r="K33" t="n">
-        <v>575.2436454601398</v>
+        <v>554.3919722285767</v>
       </c>
       <c r="L33" t="n">
-        <v>1125.087322401215</v>
+        <v>737.1037073192275</v>
       </c>
       <c r="M33" t="n">
-        <v>1357.660167468481</v>
+        <v>969.6765523864929</v>
       </c>
       <c r="N33" t="n">
-        <v>1610.797168618325</v>
+        <v>1697.362504136455</v>
       </c>
       <c r="O33" t="n">
         <v>1906.713610662506</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>565.9737676641312</v>
+        <v>565.9737676641309</v>
       </c>
       <c r="C34" t="n">
-        <v>477.2711314302717</v>
+        <v>477.2711314302714</v>
       </c>
       <c r="D34" t="n">
-        <v>407.3880387119834</v>
+        <v>407.3880387119831</v>
       </c>
       <c r="E34" t="n">
-        <v>339.7084918236378</v>
+        <v>339.7084918236374</v>
       </c>
       <c r="F34" t="n">
-        <v>273.0520910197748</v>
+        <v>273.0520910197745</v>
       </c>
       <c r="G34" t="n">
-        <v>184.8579729533937</v>
+        <v>184.8579729533933</v>
       </c>
       <c r="H34" t="n">
         <v>112.429951809169</v>
       </c>
       <c r="I34" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J34" t="n">
         <v>147.0742273486941</v>
       </c>
       <c r="K34" t="n">
-        <v>347.1622746287834</v>
+        <v>347.1622746287833</v>
       </c>
       <c r="L34" t="n">
         <v>636.7412638312883</v>
       </c>
       <c r="M34" t="n">
-        <v>948.1761437746238</v>
+        <v>948.1761437746236</v>
       </c>
       <c r="N34" t="n">
         <v>1259.510224484782</v>
@@ -6901,7 +6901,7 @@
         <v>807.947718249806</v>
       </c>
       <c r="Y34" t="n">
-        <v>667.3886858003234</v>
+        <v>667.3886858003233</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>1426.088700803848</v>
       </c>
       <c r="C35" t="n">
-        <v>1204.238717623145</v>
+        <v>1204.238717623144</v>
       </c>
       <c r="D35" t="n">
         <v>993.0855527761017</v>
@@ -6923,7 +6923,7 @@
         <v>754.4098339375653</v>
       </c>
       <c r="F35" t="n">
-        <v>490.5364629076656</v>
+        <v>490.5364629076655</v>
       </c>
       <c r="G35" t="n">
         <v>220.9606665217257</v>
@@ -6935,25 +6935,25 @@
         <v>53.94096893601659</v>
       </c>
       <c r="J35" t="n">
-        <v>108.4035068467937</v>
+        <v>275.8091558671466</v>
       </c>
       <c r="K35" t="n">
-        <v>240.7672514645051</v>
+        <v>729.076858930311</v>
       </c>
       <c r="L35" t="n">
-        <v>441.8779429236509</v>
+        <v>930.1875503894568</v>
       </c>
       <c r="M35" t="n">
-        <v>1109.397433506856</v>
+        <v>1185.631381963595</v>
       </c>
       <c r="N35" t="n">
-        <v>1776.916924090061</v>
+        <v>1449.822370169739</v>
       </c>
       <c r="O35" t="n">
-        <v>2013.049721431254</v>
+        <v>1923.981017474578</v>
       </c>
       <c r="P35" t="n">
-        <v>2409.594617110752</v>
+        <v>2409.594617110753</v>
       </c>
       <c r="Q35" t="n">
         <v>2697.048446800829</v>
@@ -6968,19 +6968,19 @@
         <v>2631.109718285715</v>
       </c>
       <c r="U35" t="n">
-        <v>2524.562504920008</v>
+        <v>2524.562504920007</v>
       </c>
       <c r="V35" t="n">
-        <v>2340.612151336145</v>
+        <v>2340.612151336144</v>
       </c>
       <c r="W35" t="n">
-        <v>2134.956029825739</v>
+        <v>2134.956029825738</v>
       </c>
       <c r="X35" t="n">
         <v>1908.602805324366</v>
       </c>
       <c r="Y35" t="n">
-        <v>1665.576007108263</v>
+        <v>1665.576007108262</v>
       </c>
     </row>
     <row r="36">
@@ -7008,25 +7008,25 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H36" t="n">
-        <v>92.48729593459851</v>
+        <v>92.48729593459852</v>
       </c>
       <c r="I36" t="n">
         <v>53.94096893601659</v>
       </c>
       <c r="J36" t="n">
-        <v>192.3907614399509</v>
+        <v>192.3907614399508</v>
       </c>
       <c r="K36" t="n">
         <v>555.6443519024861</v>
       </c>
       <c r="L36" t="n">
-        <v>738.356086993137</v>
+        <v>1105.488028843562</v>
       </c>
       <c r="M36" t="n">
-        <v>970.9289320604023</v>
+        <v>1338.060873910827</v>
       </c>
       <c r="N36" t="n">
-        <v>1287.839514494839</v>
+        <v>1591.197875060671</v>
       </c>
       <c r="O36" t="n">
         <v>1887.114317104853</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>400.6585161782298</v>
+        <v>352.4893974565092</v>
       </c>
       <c r="C37" t="n">
-        <v>378.8348670100306</v>
+        <v>330.6657482883101</v>
       </c>
       <c r="D37" t="n">
-        <v>228.7182275976949</v>
+        <v>180.5491088759743</v>
       </c>
       <c r="E37" t="n">
-        <v>80.80513401530175</v>
+        <v>80.8051340153017</v>
       </c>
       <c r="F37" t="n">
-        <v>80.80513401530175</v>
+        <v>80.8051340153017</v>
       </c>
       <c r="G37" t="n">
-        <v>59.49000301458095</v>
+        <v>59.49000301458092</v>
       </c>
       <c r="H37" t="n">
         <v>53.94096893601659</v>
@@ -7099,7 +7099,7 @@
         <v>175.39211710127</v>
       </c>
       <c r="L37" t="n">
-        <v>386.3342071889391</v>
+        <v>386.334207188939</v>
       </c>
       <c r="M37" t="n">
         <v>619.1321880174387</v>
@@ -7126,19 +7126,19 @@
         <v>1080.60138472706</v>
       </c>
       <c r="U37" t="n">
-        <v>839.6281004943256</v>
+        <v>938.5715155323126</v>
       </c>
       <c r="V37" t="n">
-        <v>732.0561460481465</v>
+        <v>683.8870273264257</v>
       </c>
       <c r="W37" t="n">
-        <v>589.7515097708937</v>
+        <v>541.5823910491729</v>
       </c>
       <c r="X37" t="n">
-        <v>508.8744926325841</v>
+        <v>460.7053739108633</v>
       </c>
       <c r="Y37" t="n">
-        <v>435.1944472487617</v>
+        <v>387.025328527041</v>
       </c>
     </row>
     <row r="38">
@@ -7148,61 +7148,61 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1426.088700803849</v>
+        <v>1426.088700803848</v>
       </c>
       <c r="C38" t="n">
         <v>1204.238717623145</v>
       </c>
       <c r="D38" t="n">
-        <v>993.0855527761028</v>
+        <v>993.0855527761018</v>
       </c>
       <c r="E38" t="n">
-        <v>754.4098339375662</v>
+        <v>754.4098339375654</v>
       </c>
       <c r="F38" t="n">
-        <v>490.5364629076664</v>
+        <v>490.5364629076656</v>
       </c>
       <c r="G38" t="n">
         <v>220.9606665217257</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J38" t="n">
-        <v>275.8091558671467</v>
+        <v>275.8091558671466</v>
       </c>
       <c r="K38" t="n">
-        <v>408.1729004848581</v>
+        <v>729.076858930311</v>
       </c>
       <c r="L38" t="n">
-        <v>671.3899600567419</v>
+        <v>930.1875503894568</v>
       </c>
       <c r="M38" t="n">
-        <v>1338.909450639947</v>
+        <v>1185.631381963595</v>
       </c>
       <c r="N38" t="n">
-        <v>2006.428941223153</v>
+        <v>1449.822370169739</v>
       </c>
       <c r="O38" t="n">
-        <v>2242.561738564346</v>
+        <v>1899.388296628721</v>
       </c>
       <c r="P38" t="n">
-        <v>2409.594617110753</v>
+        <v>2385.001896264896</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.04844680083</v>
+        <v>2672.455725954973</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.048446800831</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="T38" t="n">
-        <v>2631.109718285716</v>
+        <v>2631.109718285715</v>
       </c>
       <c r="U38" t="n">
         <v>2524.562504920008</v>
@@ -7211,13 +7211,13 @@
         <v>2340.612151336145</v>
       </c>
       <c r="W38" t="n">
-        <v>2134.956029825739</v>
+        <v>2134.956029825738</v>
       </c>
       <c r="X38" t="n">
-        <v>1908.602805324367</v>
+        <v>1908.602805324366</v>
       </c>
       <c r="Y38" t="n">
-        <v>1665.576007108263</v>
+        <v>1665.576007108262</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H39" t="n">
-        <v>92.48729593459854</v>
+        <v>92.48729593459852</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J39" t="n">
-        <v>67.56063645294614</v>
+        <v>67.5606364529461</v>
       </c>
       <c r="K39" t="n">
-        <v>430.8142269154813</v>
+        <v>430.8142269154812</v>
       </c>
       <c r="L39" t="n">
-        <v>980.6579038565567</v>
+        <v>613.5259620061321</v>
       </c>
       <c r="M39" t="n">
-        <v>1213.230748923822</v>
+        <v>846.0988070733974</v>
       </c>
       <c r="N39" t="n">
-        <v>1466.367750073666</v>
+        <v>1287.839514494839</v>
       </c>
       <c r="O39" t="n">
-        <v>2065.64255268368</v>
+        <v>1887.114317104853</v>
       </c>
       <c r="P39" t="n">
-        <v>2529.610347100675</v>
+        <v>2351.082111521847</v>
       </c>
       <c r="Q39" t="n">
         <v>2608.534525615434</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>106.4334486588142</v>
+        <v>253.5459824185218</v>
       </c>
       <c r="C40" t="n">
-        <v>84.60979949061507</v>
+        <v>231.7223332503227</v>
       </c>
       <c r="D40" t="n">
-        <v>81.60569383798712</v>
+        <v>228.7182275976948</v>
       </c>
       <c r="E40" t="n">
-        <v>80.80513401530177</v>
+        <v>227.9176677750095</v>
       </c>
       <c r="F40" t="n">
-        <v>80.80513401530177</v>
+        <v>227.9176677750095</v>
       </c>
       <c r="G40" t="n">
-        <v>59.49000301458097</v>
+        <v>59.49000301458092</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="K40" t="n">
         <v>175.39211710127</v>
       </c>
       <c r="L40" t="n">
-        <v>386.3342071889391</v>
+        <v>386.334207188939</v>
       </c>
       <c r="M40" t="n">
         <v>619.1321880174387</v>
@@ -7354,28 +7354,28 @@
         <v>1215.557587343994</v>
       </c>
       <c r="R40" t="n">
-        <v>1093.136221406615</v>
+        <v>1215.557587343994</v>
       </c>
       <c r="S40" t="n">
-        <v>888.8185596418248</v>
+        <v>1158.352459338911</v>
       </c>
       <c r="T40" t="n">
-        <v>687.4329021696576</v>
+        <v>981.6579696890728</v>
       </c>
       <c r="U40" t="n">
-        <v>545.40303297491</v>
+        <v>692.5155667346174</v>
       </c>
       <c r="V40" t="n">
-        <v>437.8310785287309</v>
+        <v>584.9436122884383</v>
       </c>
       <c r="W40" t="n">
-        <v>295.526442251478</v>
+        <v>442.6389760111855</v>
       </c>
       <c r="X40" t="n">
-        <v>214.6494251131685</v>
+        <v>361.761958872876</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.9693797293461</v>
+        <v>288.0819134890537</v>
       </c>
     </row>
     <row r="41">
@@ -7385,61 +7385,61 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1426.088700803849</v>
+        <v>1426.088700803848</v>
       </c>
       <c r="C41" t="n">
-        <v>1204.238717623145</v>
+        <v>1204.238717623144</v>
       </c>
       <c r="D41" t="n">
-        <v>993.0855527761023</v>
+        <v>993.0855527761015</v>
       </c>
       <c r="E41" t="n">
-        <v>754.4098339375658</v>
+        <v>754.4098339375651</v>
       </c>
       <c r="F41" t="n">
-        <v>490.5364629076661</v>
+        <v>490.5364629076653</v>
       </c>
       <c r="G41" t="n">
         <v>220.9606665217257</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J41" t="n">
-        <v>275.8091558671467</v>
+        <v>275.8091558671466</v>
       </c>
       <c r="K41" t="n">
-        <v>408.1729004848581</v>
+        <v>729.076858930311</v>
       </c>
       <c r="L41" t="n">
-        <v>1022.76819434895</v>
+        <v>1168.213400353102</v>
       </c>
       <c r="M41" t="n">
-        <v>1690.287684932156</v>
+        <v>1423.65723192724</v>
       </c>
       <c r="N41" t="n">
-        <v>1954.4786731383</v>
+        <v>1687.848220133385</v>
       </c>
       <c r="O41" t="n">
-        <v>2190.611470479493</v>
+        <v>1923.981017474578</v>
       </c>
       <c r="P41" t="n">
         <v>2409.594617110753</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="T41" t="n">
-        <v>2631.109718285716</v>
+        <v>2631.109718285715</v>
       </c>
       <c r="U41" t="n">
         <v>2524.562504920008</v>
@@ -7448,13 +7448,13 @@
         <v>2340.612151336145</v>
       </c>
       <c r="W41" t="n">
-        <v>2134.956029825739</v>
+        <v>2134.956029825738</v>
       </c>
       <c r="X41" t="n">
-        <v>1908.602805324367</v>
+        <v>1908.602805324366</v>
       </c>
       <c r="Y41" t="n">
-        <v>1665.576007108263</v>
+        <v>1665.576007108262</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H42" t="n">
-        <v>92.48729593459854</v>
+        <v>92.48729593459852</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J42" t="n">
-        <v>192.3907614399509</v>
+        <v>67.5606364529461</v>
       </c>
       <c r="K42" t="n">
-        <v>555.6443519024861</v>
+        <v>430.8142269154812</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.488028843562</v>
+        <v>980.6579038565567</v>
       </c>
       <c r="M42" t="n">
-        <v>1338.060873910827</v>
+        <v>1349.980654298533</v>
       </c>
       <c r="N42" t="n">
-        <v>1591.197875060671</v>
+        <v>1603.117655448377</v>
       </c>
       <c r="O42" t="n">
-        <v>1887.114317104853</v>
+        <v>2202.392458058391</v>
       </c>
       <c r="P42" t="n">
         <v>2351.082111521847</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>352.4893974565087</v>
+        <v>377.1805652788379</v>
       </c>
       <c r="C43" t="n">
-        <v>330.6657482883095</v>
+        <v>208.244382350931</v>
       </c>
       <c r="D43" t="n">
-        <v>327.6616426356816</v>
+        <v>205.2402766983031</v>
       </c>
       <c r="E43" t="n">
-        <v>326.8610828129962</v>
+        <v>199.9283700248478</v>
       </c>
       <c r="F43" t="n">
-        <v>179.9711353150859</v>
+        <v>199.9283700248478</v>
       </c>
       <c r="G43" t="n">
-        <v>59.49000301458097</v>
+        <v>178.613239024127</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94096893601661</v>
+        <v>173.0642049455626</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="K43" t="n">
         <v>175.39211710127</v>
       </c>
       <c r="L43" t="n">
-        <v>386.3342071889391</v>
+        <v>386.334207188939</v>
       </c>
       <c r="M43" t="n">
         <v>619.1321880174387</v>
@@ -7591,28 +7591,28 @@
         <v>1215.557587343994</v>
       </c>
       <c r="R43" t="n">
-        <v>1215.557587343994</v>
+        <v>1093.136221406615</v>
       </c>
       <c r="S43" t="n">
-        <v>1158.352459338911</v>
+        <v>1035.931093401533</v>
       </c>
       <c r="T43" t="n">
-        <v>1080.60138472706</v>
+        <v>958.1800187896814</v>
       </c>
       <c r="U43" t="n">
-        <v>938.5715155323123</v>
+        <v>816.1501495949337</v>
       </c>
       <c r="V43" t="n">
-        <v>830.9995610861332</v>
+        <v>708.5781951487546</v>
       </c>
       <c r="W43" t="n">
-        <v>688.6949248088804</v>
+        <v>566.2735588715018</v>
       </c>
       <c r="X43" t="n">
-        <v>607.8179076705708</v>
+        <v>485.3965417331922</v>
       </c>
       <c r="Y43" t="n">
-        <v>387.0253285270406</v>
+        <v>411.7164963493699</v>
       </c>
     </row>
     <row r="44">
@@ -7631,13 +7631,13 @@
         <v>993.0855527761014</v>
       </c>
       <c r="E44" t="n">
-        <v>754.4098339375651</v>
+        <v>754.4098339375653</v>
       </c>
       <c r="F44" t="n">
         <v>490.5364629076653</v>
       </c>
       <c r="G44" t="n">
-        <v>220.9606665217257</v>
+        <v>220.9606665217256</v>
       </c>
       <c r="H44" t="n">
         <v>53.94096893601659</v>
@@ -7646,28 +7646,28 @@
         <v>53.94096893601659</v>
       </c>
       <c r="J44" t="n">
-        <v>275.8091558671467</v>
+        <v>275.8091558671466</v>
       </c>
       <c r="K44" t="n">
-        <v>408.1729004848581</v>
+        <v>729.076858930311</v>
       </c>
       <c r="L44" t="n">
-        <v>1022.76819434895</v>
+        <v>1168.213400353102</v>
       </c>
       <c r="M44" t="n">
-        <v>1278.212025923088</v>
+        <v>1423.65723192724</v>
       </c>
       <c r="N44" t="n">
-        <v>1945.731516506294</v>
+        <v>1687.848220133385</v>
       </c>
       <c r="O44" t="n">
-        <v>2181.864313847487</v>
+        <v>1923.981017474578</v>
       </c>
       <c r="P44" t="n">
-        <v>2385.001896264896</v>
+        <v>2409.594617110753</v>
       </c>
       <c r="Q44" t="n">
-        <v>2672.455725954973</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="R44" t="n">
         <v>2697.048446800829</v>
@@ -7719,28 +7719,28 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H45" t="n">
-        <v>92.48729593459851</v>
+        <v>92.48729593459852</v>
       </c>
       <c r="I45" t="n">
         <v>53.94096893601659</v>
       </c>
       <c r="J45" t="n">
-        <v>192.3907614399509</v>
+        <v>67.5606364529461</v>
       </c>
       <c r="K45" t="n">
-        <v>555.6443519024861</v>
+        <v>168.9936422730285</v>
       </c>
       <c r="L45" t="n">
-        <v>1105.488028843562</v>
+        <v>351.7053773636793</v>
       </c>
       <c r="M45" t="n">
-        <v>1424.626209428958</v>
+        <v>935.598164865172</v>
       </c>
       <c r="N45" t="n">
-        <v>1677.763210578802</v>
+        <v>1603.117655448377</v>
       </c>
       <c r="O45" t="n">
-        <v>1887.114317104853</v>
+        <v>2202.392458058391</v>
       </c>
       <c r="P45" t="n">
         <v>2351.082111521847</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>106.4334486588142</v>
+        <v>499.6019312162175</v>
       </c>
       <c r="C46" t="n">
-        <v>84.60979949061505</v>
+        <v>477.7782820480184</v>
       </c>
       <c r="D46" t="n">
-        <v>81.60569383798709</v>
+        <v>327.6616426356827</v>
       </c>
       <c r="E46" t="n">
-        <v>80.80513401530175</v>
+        <v>179.7485490532896</v>
       </c>
       <c r="F46" t="n">
-        <v>80.80513401530175</v>
+        <v>80.80513401530159</v>
       </c>
       <c r="G46" t="n">
-        <v>59.49000301458095</v>
+        <v>59.49000301458086</v>
       </c>
       <c r="H46" t="n">
         <v>53.94096893601659</v>
@@ -7810,7 +7810,7 @@
         <v>175.39211710127</v>
       </c>
       <c r="L46" t="n">
-        <v>386.3342071889391</v>
+        <v>386.334207188939</v>
       </c>
       <c r="M46" t="n">
         <v>619.1321880174387</v>
@@ -7837,19 +7837,19 @@
         <v>1080.60138472706</v>
       </c>
       <c r="U46" t="n">
-        <v>938.5715155323123</v>
+        <v>938.5715155323128</v>
       </c>
       <c r="V46" t="n">
-        <v>683.8870273264255</v>
+        <v>830.9995610861338</v>
       </c>
       <c r="W46" t="n">
-        <v>442.6389760111858</v>
+        <v>688.6949248088811</v>
       </c>
       <c r="X46" t="n">
-        <v>361.7619588728762</v>
+        <v>607.8179076705716</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.9693797293461</v>
+        <v>534.1378622867493</v>
       </c>
     </row>
   </sheetData>
@@ -8690,10 +8690,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>180.8205403740217</v>
       </c>
       <c r="L11" t="n">
-        <v>70.52989375290412</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,16 +8702,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>345.1000650488706</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>40.87528770545094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>188.7741878393834</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>314.8652231797928</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>180.8205403740208</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8942,13 +8942,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>203.3149681418706</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,25 +9003,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>348.6959764366761</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>136.3966111758616</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>284.6320153830535</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9167,25 +9167,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>380.4759295761908</v>
+        <v>266.5195585663599</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>325.5939698640774</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>316.7584581145762</v>
       </c>
       <c r="O17" t="n">
-        <v>345.1000650488705</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>158.4548597524204</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>188.7741878393834</v>
+        <v>59.09816053223517</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>348.6959764366761</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>327.9241016057885</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>372.1522779934578</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>205.6616725415522</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>266.5195585663599</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>325.5939698640774</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>316.7584581145762</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.87528770545094</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>59.09816053223514</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>348.6959764366761</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>327.9241016057885</v>
       </c>
       <c r="O21" t="n">
-        <v>188.7741878393836</v>
+        <v>372.1522779934578</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>332.5174354182114</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>371.9499590028346</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>363.1144472533333</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>6.065774176022444</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,13 +9723,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.484829832821504</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>127.5758651732308</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>171.1184632758294</v>
+        <v>230.7313609363243</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9890,13 +9890,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>40.875287705451</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>87.43973284659654</v>
+        <v>87.43973284659603</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10127,13 +10127,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>203.5435243691103</v>
+        <v>228.3846565366432</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,7 +10197,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>87.43973284659609</v>
+        <v>87.43973284659614</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10364,13 +10364,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>228.3846565366417</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>34.44690919703812</v>
       </c>
       <c r="R32" t="n">
-        <v>40.87528770545094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,22 +10425,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>105.0287391469108</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>87.43973284659597</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>416.2380394030981</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>407.4025276535968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>240.43015147843</v>
       </c>
       <c r="P35" t="n">
-        <v>231.8303203364553</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>40.87528770545094</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,16 +10668,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>64.41775887332628</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>87.43973284659648</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10823,28 +10823,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>62.73370516438166</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>416.2380394030983</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>407.402527653597</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>215.5890193108985</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>40.87528770545094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,13 +10905,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>190.5087942137353</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>29.74573664612467</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,13 +11060,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>240.4301514784298</v>
       </c>
       <c r="M41" t="n">
-        <v>416.2380394030984</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>52.47501826752799</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>40.87528770545094</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,16 +11145,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>138.1312175502133</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>87.43973284659643</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,28 +11297,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>240.4301514784298</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>407.4025276535968</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>36.46939784949708</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,25 +11373,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>87.43973284659654</v>
+        <v>354.8686287214418</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>418.5681711448092</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23258,25 +23258,25 @@
         <v>303.3026304363736</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>285.8416805439006</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>302.4991588451549</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>327.4448345146045</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>55.16775254958898</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>23.81896975173336</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>131.4895384249673</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>171.691938427054</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>248.3210472430279</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>161.8864004734934</v>
       </c>
       <c r="X11" t="n">
-        <v>290.2998894513621</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>275.251830393576</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>327.4448345146045</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>333.0902356170841</v>
       </c>
       <c r="H14" t="n">
-        <v>78.94298668450838</v>
+        <v>231.5596978048557</v>
       </c>
       <c r="I14" t="n">
-        <v>23.81896975173336</v>
+        <v>23.81896975173335</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.21019719500373</v>
+        <v>66.21019719500376</v>
       </c>
       <c r="T14" t="n">
-        <v>131.4895384249674</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>171.691938427054</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>248.3210472430279</v>
+        <v>30.10941121417433</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>290.299889451362</v>
       </c>
       <c r="Y14" t="n">
-        <v>306.8067274289466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23732,13 +23732,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>179.8983226496901</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>179.8983226496893</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>179.89832264969</v>
+        <v>179.8983226496896</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.911359959194669e-12</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-2.700062395888381e-13</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>780825.7151698759</v>
+        <v>780825.715169876</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>780825.7151698759</v>
+        <v>780825.715169876</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>870187.4542366465</v>
+        <v>870187.4542366466</v>
       </c>
     </row>
     <row r="8">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>901505.9138126771</v>
+        <v>901505.9138126773</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377789</v>
+        <v>614457.2540377788</v>
       </c>
       <c r="C2" t="n">
-        <v>614457.2540377789</v>
+        <v>614457.2540377788</v>
       </c>
       <c r="D2" t="n">
         <v>614457.2540377786</v>
       </c>
       <c r="E2" t="n">
-        <v>538020.0932359487</v>
+        <v>538020.0932359485</v>
       </c>
       <c r="F2" t="n">
-        <v>538020.0932359488</v>
+        <v>538020.0932359481</v>
       </c>
       <c r="G2" t="n">
-        <v>605041.3975360261</v>
+        <v>605041.3975360258</v>
       </c>
       <c r="H2" t="n">
-        <v>605041.397536026</v>
+        <v>605041.3975360257</v>
       </c>
       <c r="I2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982132</v>
       </c>
       <c r="J2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="K2" t="n">
+        <v>615781.3273982129</v>
+      </c>
+      <c r="L2" t="n">
+        <v>615781.3273982126</v>
+      </c>
+      <c r="M2" t="n">
+        <v>615781.327398213</v>
+      </c>
+      <c r="N2" t="n">
         <v>615781.3273982125</v>
-      </c>
-      <c r="L2" t="n">
-        <v>615781.3273982122</v>
-      </c>
-      <c r="M2" t="n">
-        <v>615781.3273982127</v>
-      </c>
-      <c r="N2" t="n">
-        <v>615781.3273982127</v>
       </c>
       <c r="O2" t="n">
         <v>615781.3273982129</v>
       </c>
       <c r="P2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982129</v>
       </c>
     </row>
     <row r="3">
@@ -26372,28 +26372,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>793631.6724150429</v>
+        <v>793631.6724150428</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>63544.96898168559</v>
+        <v>63544.9689816856</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>12327.03098776748</v>
+        <v>12327.03098776745</v>
       </c>
       <c r="J3" t="n">
-        <v>75688.18005323119</v>
+        <v>75688.18005323122</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63544.96898168555</v>
+        <v>63544.96898168565</v>
       </c>
       <c r="M3" t="n">
         <v>137355.3289379699</v>
@@ -26424,22 +26424,22 @@
         <v>436273.8797192482</v>
       </c>
       <c r="E4" t="n">
-        <v>150591.8022177843</v>
+        <v>150591.8022177844</v>
       </c>
       <c r="F4" t="n">
         <v>150591.8022177843</v>
       </c>
       <c r="G4" t="n">
-        <v>201402.0326272213</v>
+        <v>201402.0326272214</v>
       </c>
       <c r="H4" t="n">
-        <v>201402.0326272213</v>
+        <v>201402.0326272214</v>
       </c>
       <c r="I4" t="n">
         <v>206599.1074736613</v>
       </c>
       <c r="J4" t="n">
-        <v>194191.1180738481</v>
+        <v>194191.118073848</v>
       </c>
       <c r="K4" t="n">
         <v>194191.118073848</v>
@@ -26448,16 +26448,16 @@
         <v>194191.118073848</v>
       </c>
       <c r="M4" t="n">
-        <v>204259.4638285999</v>
+        <v>204259.4638286</v>
       </c>
       <c r="N4" t="n">
-        <v>204259.4638285999</v>
+        <v>204259.4638286</v>
       </c>
       <c r="O4" t="n">
         <v>204259.4638285999</v>
       </c>
       <c r="P4" t="n">
-        <v>204259.4638285999</v>
+        <v>204259.4638286</v>
       </c>
     </row>
     <row r="5">
@@ -26488,7 +26488,7 @@
         <v>63921.62594256461</v>
       </c>
       <c r="I5" t="n">
-        <v>66740.07008220107</v>
+        <v>66740.07008220105</v>
       </c>
       <c r="J5" t="n">
         <v>77650.54597770231</v>
@@ -26506,7 +26506,7 @@
         <v>68321.30794187219</v>
       </c>
       <c r="O5" t="n">
-        <v>68321.30794187219</v>
+        <v>68321.30794187218</v>
       </c>
       <c r="P5" t="n">
         <v>68321.30794187219</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>144555.7743185308</v>
+        <v>144551.3607406626</v>
       </c>
       <c r="C6" t="n">
-        <v>144555.7743185308</v>
+        <v>144551.3607406626</v>
       </c>
       <c r="D6" t="n">
-        <v>144555.7743185304</v>
+        <v>144551.3607406623</v>
       </c>
       <c r="E6" t="n">
-        <v>-463447.3048427915</v>
+        <v>-463706.5089566659</v>
       </c>
       <c r="F6" t="n">
-        <v>330184.3675722515</v>
+        <v>329925.1634583766</v>
       </c>
       <c r="G6" t="n">
-        <v>276172.7699845546</v>
+        <v>276136.970218347</v>
       </c>
       <c r="H6" t="n">
-        <v>339717.73896624</v>
+        <v>339681.9392000324</v>
       </c>
       <c r="I6" t="n">
-        <v>330115.1188545825</v>
+        <v>330115.1188545834</v>
       </c>
       <c r="J6" t="n">
-        <v>268251.4832934306</v>
+        <v>268251.4832934309</v>
       </c>
       <c r="K6" t="n">
-        <v>343939.6633466621</v>
+        <v>343939.6633466627</v>
       </c>
       <c r="L6" t="n">
-        <v>280394.6943649763</v>
+        <v>280394.6943649766</v>
       </c>
       <c r="M6" t="n">
-        <v>205845.2266897708</v>
+        <v>205845.226689771</v>
       </c>
       <c r="N6" t="n">
-        <v>343200.5556277407</v>
+        <v>343200.5556277403</v>
       </c>
       <c r="O6" t="n">
         <v>343200.5556277408</v>
       </c>
       <c r="P6" t="n">
-        <v>343200.5556277406</v>
+        <v>343200.5556277407</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>79.431211227107</v>
+      </c>
+      <c r="F2" t="n">
+        <v>79.43121122710697</v>
+      </c>
+      <c r="G2" t="n">
+        <v>158.862422454214</v>
+      </c>
+      <c r="H2" t="n">
+        <v>158.862422454214</v>
+      </c>
+      <c r="I2" t="n">
+        <v>158.862422454214</v>
+      </c>
+      <c r="J2" t="n">
         <v>79.43121122710696</v>
       </c>
-      <c r="F2" t="n">
-        <v>79.43121122710696</v>
-      </c>
-      <c r="G2" t="n">
-        <v>158.8624224542139</v>
-      </c>
-      <c r="H2" t="n">
-        <v>158.8624224542139</v>
-      </c>
-      <c r="I2" t="n">
-        <v>158.8624224542139</v>
-      </c>
-      <c r="J2" t="n">
-        <v>79.43121122710697</v>
-      </c>
       <c r="K2" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="L2" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="M2" t="n">
         <v>145.6414084221107</v>
@@ -26725,7 +26725,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="P2" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973005</v>
       </c>
       <c r="F3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="G3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="H3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="I3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="J3" t="n">
-        <v>691.8460543973005</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="K3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="L3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="M3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="N3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="O3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="P3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
     </row>
     <row r="4">
@@ -26808,25 +26808,25 @@
         <v>583.6180421611866</v>
       </c>
       <c r="I4" t="n">
-        <v>629.9740312999439</v>
+        <v>629.9740312999438</v>
       </c>
       <c r="J4" t="n">
         <v>919.25328117088</v>
       </c>
       <c r="K4" t="n">
-        <v>919.25328117088</v>
+        <v>919.2532811708801</v>
       </c>
       <c r="L4" t="n">
-        <v>919.25328117088</v>
+        <v>919.2532811708801</v>
       </c>
       <c r="M4" t="n">
         <v>674.2621117002074</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2621117002076</v>
+        <v>674.2621117002074</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2621117002076</v>
+        <v>674.2621117002074</v>
       </c>
       <c r="P4" t="n">
         <v>674.2621117002074</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.43121122710699</v>
+        <v>79.431211227107</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710706</v>
       </c>
       <c r="M2" t="n">
-        <v>66.21019719500374</v>
+        <v>66.21019719500379</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973005</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>46.35598913875731</v>
+        <v>46.3559891387572</v>
       </c>
       <c r="J4" t="n">
-        <v>289.279249870936</v>
+        <v>289.2792498709362</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>338.626872690514</v>
+        <v>338.6268726905139</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.43121122710699</v>
+        <v>79.431211227107</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="C11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="D11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="E11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="F11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="G11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="H11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="I11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="T11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="U11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="V11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="W11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="X11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
     </row>
     <row r="12">
@@ -28169,25 +28169,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>67.11943691067985</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>79.43121122710696</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>79.43121122710696</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>79.431211227107</v>
       </c>
       <c r="I12" t="n">
-        <v>38.16086372859611</v>
+        <v>38.16086372859612</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,10 +28217,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>79.431211227107</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>67.11943691067927</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="C13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="D13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="E13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="F13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="G13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="H13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="I13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="J13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="K13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="L13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="M13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="N13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="O13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="P13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="R13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="S13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="T13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="U13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="V13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="W13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="X13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="C14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="D14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="E14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="F14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="G14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="H14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="I14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="T14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="U14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="V14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="W14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="X14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="Y14" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
     </row>
     <row r="15">
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>79.43121122710696</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>25.84908941216881</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,10 +28454,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>79.43121122710696</v>
+        <v>67.11943691067944</v>
       </c>
       <c r="T15" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="C16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="D16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="E16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="F16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="G16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="H16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="I16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="J16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="K16" t="n">
-        <v>79.43121122710679</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="L16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="M16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="N16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="O16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="P16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="R16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="S16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="T16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="U16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="V16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="W16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="X16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="C17" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="D17" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="E17" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="F17" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="G17" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="H17" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="I17" t="n">
         <v>103.2501809788403</v>
@@ -28615,22 +28615,22 @@
         <v>145.6414084221107</v>
       </c>
       <c r="T17" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="U17" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="V17" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="W17" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="X17" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="Y17" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
     </row>
     <row r="18">
@@ -28643,7 +28643,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>67.11943691067964</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -28658,7 +28658,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>74.17614454634446</v>
       </c>
       <c r="I18" t="n">
         <v>38.16086372859611</v>
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>144.0419631757947</v>
       </c>
       <c r="T18" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28719,16 +28719,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="C19" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -28737,13 +28737,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>84.58665910368651</v>
+        <v>151.1349521598894</v>
       </c>
       <c r="I19" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J19" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>121.1971522780048</v>
+        <v>67.07731902944681</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>158.862422454214</v>
       </c>
       <c r="T19" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="V19" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="W19" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="X19" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="Y19" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="C20" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="D20" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="E20" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="F20" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="G20" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="H20" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="I20" t="n">
         <v>103.2501809788403</v>
@@ -28852,22 +28852,22 @@
         <v>145.6414084221107</v>
       </c>
       <c r="T20" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="U20" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="V20" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="W20" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="X20" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="Y20" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
     </row>
     <row r="21">
@@ -28892,13 +28892,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>120.354786238311</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,13 +28925,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S21" t="n">
-        <v>144.0419631757947</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>120.1007599176951</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>81.05426533837172</v>
       </c>
       <c r="E22" t="n">
-        <v>76.29976372271909</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>158.862422454214</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>151.1349521598894</v>
       </c>
       <c r="I22" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S22" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="T22" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="U22" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="V22" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="W22" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="Y22" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="C23" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="D23" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="E23" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="F23" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="G23" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="H23" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="I23" t="n">
         <v>103.2501809788403</v>
@@ -29089,22 +29089,22 @@
         <v>145.6414084221107</v>
       </c>
       <c r="T23" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="U23" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="V23" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="W23" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="X23" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="Y23" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
     </row>
     <row r="24">
@@ -29132,10 +29132,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>46.08353671520458</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.763751642754528</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>76.48064880104531</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>71.1452846724038</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>158.862422454214</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.1349521598894</v>
       </c>
       <c r="I25" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J25" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S25" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="T25" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="U25" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="V25" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="W25" t="n">
-        <v>158.8624224542139</v>
+        <v>91.30121477437314</v>
       </c>
       <c r="X25" t="n">
-        <v>158.8624224542139</v>
+        <v>158.862422454214</v>
       </c>
       <c r="Y25" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="C26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="D26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="E26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="F26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="G26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="H26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="I26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="T26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="U26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="V26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="W26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="X26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="C28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="D28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="E28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="F28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="G28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="H28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="I28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="J28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="K28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="L28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="M28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="N28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="O28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="P28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="R28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="S28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="T28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="U28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="V28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="W28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="X28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710696</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="C29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="D29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="E29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="F29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="G29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="H29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="I29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="T29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="U29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="V29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="W29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="X29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="C31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="D31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="E31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="F31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="G31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="H31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="I31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="J31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="K31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="L31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="M31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="N31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="O31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="P31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="R31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="S31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="T31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="U31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="V31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="W31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="X31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710687</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="C32" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="D32" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="E32" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="F32" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="G32" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="H32" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="I32" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="T32" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="U32" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="V32" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="W32" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="X32" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="C34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="D34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="E34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="F34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="G34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="H34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="I34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="J34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="K34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="L34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="M34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="N34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="O34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="P34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.43121122710717</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="R34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="S34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="T34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="U34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="V34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="W34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="X34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710693</v>
       </c>
     </row>
     <row r="35">
@@ -30150,7 +30150,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>47.68742753450329</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -30165,7 +30165,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J37" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30198,10 +30198,10 @@
         <v>145.6414084221107</v>
       </c>
       <c r="U37" t="n">
-        <v>47.68742753450394</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="V37" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>145.6414084221107</v>
@@ -30393,7 +30393,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>145.6414084221107</v>
@@ -30402,7 +30402,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J40" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30426,16 +30426,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="T40" t="n">
-        <v>23.24317139039778</v>
+        <v>47.6874275345034</v>
       </c>
       <c r="U40" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>145.6414084221107</v>
@@ -30618,28 +30618,28 @@
         <v>145.6414084221107</v>
       </c>
       <c r="C43" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="E43" t="n">
+        <v>141.1751750398484</v>
+      </c>
+      <c r="F43" t="n">
+        <v>145.4210480229312</v>
+      </c>
+      <c r="G43" t="n">
         <v>145.6414084221107</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>47.46706713532441</v>
       </c>
       <c r="H43" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="I43" t="n">
-        <v>117.9320036494506</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>121.1971522780048</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>145.6414084221107</v>
@@ -30684,7 +30684,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="C44" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="D44" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="E44" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="F44" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="G44" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="H44" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="I44" t="n">
         <v>103.2501809788403</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="T44" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="U44" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="V44" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="W44" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="X44" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
     </row>
     <row r="45">
@@ -30852,31 +30852,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="C46" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="D46" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>47.46706713532313</v>
       </c>
       <c r="G46" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="H46" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="I46" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J46" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S46" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="T46" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="U46" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="W46" t="n">
-        <v>47.68742753450371</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="X46" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>145.6414084221108</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943919</v>
       </c>
       <c r="H11" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I11" t="n">
-        <v>107.2257085915656</v>
+        <v>107.2257085915655</v>
       </c>
       <c r="J11" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K11" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840828</v>
       </c>
       <c r="L11" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549829</v>
       </c>
       <c r="M11" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243818</v>
       </c>
       <c r="N11" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432013</v>
       </c>
       <c r="O11" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P11" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950746</v>
       </c>
       <c r="Q11" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R11" t="n">
-        <v>174.7102501086812</v>
+        <v>174.7102501086811</v>
       </c>
       <c r="S11" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T11" t="n">
-        <v>12.17509991205702</v>
+        <v>12.17509991205701</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,46 +31832,46 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H12" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I12" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281896</v>
       </c>
       <c r="J12" t="n">
         <v>140.5948665827571</v>
       </c>
       <c r="K12" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L12" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522487</v>
       </c>
       <c r="M12" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465287</v>
       </c>
       <c r="N12" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387313</v>
       </c>
       <c r="O12" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121732</v>
       </c>
       <c r="P12" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693365</v>
       </c>
       <c r="Q12" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R12" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988858</v>
       </c>
       <c r="S12" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804307</v>
       </c>
       <c r="T12" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633197</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678784</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,25 +31914,25 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I13" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780771</v>
       </c>
       <c r="J13" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635746</v>
       </c>
       <c r="K13" t="n">
-        <v>144.9474192655328</v>
+        <v>144.9474192655327</v>
       </c>
       <c r="L13" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M13" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225024</v>
       </c>
       <c r="N13" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O13" t="n">
-        <v>176.341351701135</v>
+        <v>176.3413517011349</v>
       </c>
       <c r="P13" t="n">
         <v>150.8904902901915</v>
@@ -31941,16 +31941,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R13" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S13" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T13" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438215</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006241</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,46 +31990,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H14" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I14" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J14" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K14" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L14" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M14" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N14" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O14" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P14" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q14" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R14" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S14" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T14" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,7 +32069,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H15" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I15" t="n">
         <v>51.23576912281897</v>
@@ -32078,7 +32078,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K15" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L15" t="n">
         <v>323.1116879522488</v>
@@ -32096,19 +32096,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q15" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R15" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S15" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T15" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,22 +32151,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I16" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J16" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K16" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L16" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M16" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N16" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O16" t="n">
         <v>176.341351701135</v>
@@ -32178,16 +32178,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R16" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S16" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T16" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,46 +32227,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H17" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I17" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J17" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K17" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L17" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M17" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N17" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O17" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P17" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q17" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R17" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S17" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T17" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,7 +32306,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H18" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I18" t="n">
         <v>51.23576912281897</v>
@@ -32315,7 +32315,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K18" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L18" t="n">
         <v>323.1116879522488</v>
@@ -32333,19 +32333,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q18" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R18" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S18" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T18" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,22 +32388,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I19" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J19" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K19" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L19" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M19" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N19" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O19" t="n">
         <v>176.341351701135</v>
@@ -32415,16 +32415,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R19" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S19" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T19" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,46 +32464,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H20" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I20" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J20" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K20" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L20" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M20" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N20" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O20" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P20" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q20" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R20" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S20" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T20" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,7 +32543,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H21" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I21" t="n">
         <v>51.23576912281897</v>
@@ -32552,7 +32552,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K21" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L21" t="n">
         <v>323.1116879522488</v>
@@ -32570,19 +32570,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q21" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R21" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S21" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T21" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,22 +32625,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I22" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J22" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K22" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L22" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M22" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N22" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O22" t="n">
         <v>176.341351701135</v>
@@ -32652,16 +32652,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R22" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S22" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T22" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,46 +32701,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H23" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I23" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J23" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K23" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L23" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M23" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N23" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O23" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P23" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q23" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R23" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S23" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T23" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,7 +32780,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H24" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I24" t="n">
         <v>51.23576912281897</v>
@@ -32789,7 +32789,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K24" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L24" t="n">
         <v>323.1116879522488</v>
@@ -32807,19 +32807,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q24" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R24" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S24" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T24" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,22 +32862,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I25" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J25" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K25" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L25" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M25" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N25" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O25" t="n">
         <v>176.341351701135</v>
@@ -32889,16 +32889,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R25" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S25" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T25" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,46 +32935,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.781290670943919</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H26" t="n">
         <v>28.48389308380442</v>
       </c>
       <c r="I26" t="n">
-        <v>107.2257085915655</v>
+        <v>107.2257085915656</v>
       </c>
       <c r="J26" t="n">
         <v>236.0585690830267</v>
       </c>
       <c r="K26" t="n">
-        <v>353.7906031840828</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L26" t="n">
-        <v>438.9085275549829</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M26" t="n">
-        <v>488.3703055243818</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N26" t="n">
-        <v>496.2726476432013</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O26" t="n">
         <v>468.6161885340027</v>
       </c>
       <c r="P26" t="n">
-        <v>399.9530750950746</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q26" t="n">
         <v>300.3481029418954</v>
       </c>
       <c r="R26" t="n">
-        <v>174.7102501086811</v>
+        <v>174.7102501086812</v>
       </c>
       <c r="S26" t="n">
         <v>63.37866116413463</v>
       </c>
       <c r="T26" t="n">
-        <v>12.17509991205701</v>
+        <v>12.17509991205702</v>
       </c>
       <c r="U26" t="n">
         <v>0.2225032536755135</v>
@@ -33020,7 +33020,7 @@
         <v>14.37212275266845</v>
       </c>
       <c r="I27" t="n">
-        <v>51.23576912281896</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J27" t="n">
         <v>140.5948665827571</v>
@@ -33029,34 +33029,34 @@
         <v>240.2990206108058</v>
       </c>
       <c r="L27" t="n">
-        <v>323.1116879522487</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M27" t="n">
-        <v>377.0560996465287</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N27" t="n">
-        <v>387.0356526387313</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O27" t="n">
-        <v>354.0620086121732</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P27" t="n">
-        <v>284.1659765693365</v>
+        <v>284.1659765693366</v>
       </c>
       <c r="Q27" t="n">
         <v>189.9574298790475</v>
       </c>
       <c r="R27" t="n">
-        <v>92.39408250988858</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S27" t="n">
-        <v>27.64120792804307</v>
+        <v>27.64120792804308</v>
       </c>
       <c r="T27" t="n">
-        <v>5.998174754633197</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09790274354678784</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,25 +33099,25 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I28" t="n">
-        <v>37.51847127780771</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J28" t="n">
-        <v>88.20470106635746</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K28" t="n">
-        <v>144.9474192655327</v>
+        <v>144.9474192655328</v>
       </c>
       <c r="L28" t="n">
         <v>185.4827930100566</v>
       </c>
       <c r="M28" t="n">
-        <v>195.5655986225024</v>
+        <v>195.5655986225025</v>
       </c>
       <c r="N28" t="n">
         <v>190.915485797865</v>
       </c>
       <c r="O28" t="n">
-        <v>176.3413517011349</v>
+        <v>176.341351701135</v>
       </c>
       <c r="P28" t="n">
         <v>150.8904902901915</v>
@@ -33132,10 +33132,10 @@
         <v>21.74211288982991</v>
       </c>
       <c r="T28" t="n">
-        <v>5.330617140438215</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06805043158006241</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,46 +33175,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H29" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I29" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J29" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K29" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L29" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M29" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N29" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O29" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P29" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q29" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R29" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S29" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T29" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,7 +33254,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H30" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I30" t="n">
         <v>51.23576912281897</v>
@@ -33263,7 +33263,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K30" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L30" t="n">
         <v>323.1116879522488</v>
@@ -33281,19 +33281,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q30" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R30" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S30" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T30" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,22 +33336,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I31" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J31" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K31" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L31" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M31" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N31" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O31" t="n">
         <v>176.341351701135</v>
@@ -33363,16 +33363,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R31" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S31" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T31" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,46 +33412,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H32" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I32" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J32" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K32" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L32" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M32" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N32" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O32" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P32" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q32" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R32" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S32" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T32" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,7 +33491,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H33" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I33" t="n">
         <v>51.23576912281897</v>
@@ -33500,7 +33500,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K33" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L33" t="n">
         <v>323.1116879522488</v>
@@ -33518,19 +33518,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q33" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R33" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S33" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T33" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,22 +33573,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I34" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J34" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K34" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L34" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M34" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N34" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O34" t="n">
         <v>176.341351701135</v>
@@ -33600,16 +33600,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R34" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S34" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T34" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,46 +33649,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H35" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I35" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J35" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K35" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L35" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M35" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N35" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O35" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P35" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q35" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R35" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S35" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T35" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,7 +33728,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H36" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I36" t="n">
         <v>51.23576912281897</v>
@@ -33737,7 +33737,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K36" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L36" t="n">
         <v>323.1116879522488</v>
@@ -33755,19 +33755,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q36" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R36" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S36" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T36" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,22 +33810,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I37" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J37" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K37" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L37" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M37" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N37" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O37" t="n">
         <v>176.341351701135</v>
@@ -33837,16 +33837,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R37" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S37" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T37" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,46 +33886,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H38" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I38" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J38" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K38" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L38" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M38" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N38" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O38" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P38" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q38" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R38" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S38" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T38" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,7 +33965,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H39" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I39" t="n">
         <v>51.23576912281897</v>
@@ -33974,7 +33974,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K39" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L39" t="n">
         <v>323.1116879522488</v>
@@ -33992,19 +33992,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q39" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R39" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S39" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T39" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,22 +34047,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I40" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J40" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K40" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L40" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M40" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N40" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O40" t="n">
         <v>176.341351701135</v>
@@ -34074,16 +34074,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R40" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S40" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T40" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,46 +34123,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H41" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I41" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J41" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K41" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L41" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M41" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N41" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O41" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P41" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q41" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R41" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S41" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T41" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,7 +34202,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H42" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I42" t="n">
         <v>51.23576912281897</v>
@@ -34211,7 +34211,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K42" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L42" t="n">
         <v>323.1116879522488</v>
@@ -34229,19 +34229,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q42" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R42" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S42" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T42" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,22 +34284,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I43" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J43" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K43" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L43" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M43" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N43" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O43" t="n">
         <v>176.341351701135</v>
@@ -34311,16 +34311,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R43" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S43" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T43" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,46 +34360,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H44" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I44" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J44" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K44" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L44" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M44" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N44" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O44" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P44" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q44" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R44" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S44" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T44" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,7 +34439,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H45" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I45" t="n">
         <v>51.23576912281897</v>
@@ -34448,7 +34448,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K45" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L45" t="n">
         <v>323.1116879522488</v>
@@ -34466,19 +34466,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q45" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R45" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S45" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T45" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,22 +34521,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I46" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J46" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K46" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L46" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M46" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N46" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O46" t="n">
         <v>176.341351701135</v>
@@ -34548,16 +34548,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R46" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S46" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T46" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>224.1092797284143</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K11" t="n">
-        <v>457.8461647102671</v>
+        <v>314.521292513124</v>
       </c>
       <c r="L11" t="n">
-        <v>273.6720063379</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M11" t="n">
-        <v>258.0240722971092</v>
+        <v>258.0240722971091</v>
       </c>
       <c r="N11" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466104</v>
       </c>
       <c r="O11" t="n">
-        <v>583.6180421611866</v>
+        <v>238.5179771123159</v>
       </c>
       <c r="P11" t="n">
-        <v>168.7200793398052</v>
+        <v>490.5187875112877</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.04241306744601</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>24.84113216753144</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>139.8482752564993</v>
+        <v>13.75723991609041</v>
       </c>
       <c r="K12" t="n">
         <v>366.9228186490254</v>
       </c>
       <c r="L12" t="n">
-        <v>373.3314960117581</v>
+        <v>184.5573081723745</v>
       </c>
       <c r="M12" t="n">
-        <v>234.9220657245105</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N12" t="n">
-        <v>255.6939405553981</v>
+        <v>255.693940555398</v>
       </c>
       <c r="O12" t="n">
-        <v>211.4657641677289</v>
+        <v>526.3309873475216</v>
       </c>
       <c r="P12" t="n">
-        <v>468.6543377949436</v>
+        <v>468.6543377949434</v>
       </c>
       <c r="Q12" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.27673217679167</v>
+        <v>74.27673217679168</v>
       </c>
       <c r="K13" t="n">
         <v>202.1091386667569</v>
       </c>
       <c r="L13" t="n">
-        <v>292.5040294974798</v>
+        <v>292.5040294974797</v>
       </c>
       <c r="M13" t="n">
         <v>314.5806868114501</v>
@@ -35586,7 +35586,7 @@
         <v>227.600260782192</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.73792218940497</v>
+        <v>97.73792218940498</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>224.1092797284143</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K14" t="n">
-        <v>314.5212925131232</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L14" t="n">
-        <v>203.1421125849959</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M14" t="n">
         <v>258.0240722971092</v>
       </c>
       <c r="N14" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O14" t="n">
-        <v>238.5179771123161</v>
+        <v>238.517977112316</v>
       </c>
       <c r="P14" t="n">
-        <v>490.5187875112878</v>
+        <v>372.0350474816757</v>
       </c>
       <c r="Q14" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R14" t="n">
-        <v>24.8411321675315</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>13.75723991609044</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K15" t="n">
         <v>366.9228186490254</v>
       </c>
       <c r="L15" t="n">
-        <v>184.5573081723746</v>
+        <v>555.3976534758337</v>
       </c>
       <c r="M15" t="n">
-        <v>583.6180421611866</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N15" t="n">
-        <v>255.6939405553981</v>
+        <v>392.0905517312597</v>
       </c>
       <c r="O15" t="n">
-        <v>211.4657641677289</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P15" t="n">
-        <v>434.8235845380599</v>
+        <v>150.1915691550063</v>
       </c>
       <c r="Q15" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,10 +35805,10 @@
         <v>74.27673217679167</v>
       </c>
       <c r="K16" t="n">
-        <v>202.1091386667567</v>
+        <v>202.1091386667569</v>
       </c>
       <c r="L16" t="n">
-        <v>292.5040294974798</v>
+        <v>292.5040294974797</v>
       </c>
       <c r="M16" t="n">
         <v>314.5806868114501</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>55.0126645563405</v>
+        <v>55.01266455634044</v>
       </c>
       <c r="K17" t="n">
-        <v>133.7007521391024</v>
+        <v>133.7007521391023</v>
       </c>
       <c r="L17" t="n">
+        <v>469.6616711513556</v>
+      </c>
+      <c r="M17" t="n">
         <v>583.6180421611866</v>
       </c>
-      <c r="M17" t="n">
-        <v>258.0240722971092</v>
-      </c>
       <c r="N17" t="n">
-        <v>266.8595840466106</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="O17" t="n">
-        <v>583.6180421611866</v>
+        <v>238.517977112316</v>
       </c>
       <c r="P17" t="n">
-        <v>168.7200793398052</v>
+        <v>168.7200793398051</v>
       </c>
       <c r="Q17" t="n">
-        <v>236.4972728198664</v>
+        <v>78.04241306744595</v>
       </c>
       <c r="R17" t="n">
-        <v>24.8411321675315</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>139.8482752564993</v>
+        <v>13.75723991609041</v>
       </c>
       <c r="K18" t="n">
-        <v>366.9228186490254</v>
+        <v>102.4575816364468</v>
       </c>
       <c r="L18" t="n">
-        <v>373.3314960117581</v>
+        <v>243.6554687046097</v>
       </c>
       <c r="M18" t="n">
-        <v>234.9220657245105</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="N18" t="n">
-        <v>255.6939405553981</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="O18" t="n">
-        <v>211.4657641677289</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="P18" t="n">
-        <v>468.6543377949436</v>
+        <v>150.1915691550063</v>
       </c>
       <c r="Q18" t="n">
-        <v>260.0529435288752</v>
+        <v>49.97565579302602</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,16 +36051,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N19" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O19" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P19" t="n">
         <v>148.169049555085</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.30671096229801</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>224.1092797284143</v>
+        <v>55.01266455634044</v>
       </c>
       <c r="K20" t="n">
-        <v>339.3624246806546</v>
+        <v>133.7007521391023</v>
       </c>
       <c r="L20" t="n">
-        <v>203.1421125849959</v>
+        <v>469.6616711513556</v>
       </c>
       <c r="M20" t="n">
-        <v>258.0240722971092</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="N20" t="n">
-        <v>266.8595840466106</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="O20" t="n">
-        <v>238.5179771123161</v>
+        <v>238.517977112316</v>
       </c>
       <c r="P20" t="n">
-        <v>490.5187875112878</v>
+        <v>168.7200793398051</v>
       </c>
       <c r="Q20" t="n">
-        <v>290.3574037273507</v>
+        <v>78.04241306744595</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>139.8482752564993</v>
+        <v>13.75723991609041</v>
       </c>
       <c r="K21" t="n">
-        <v>366.9228186490254</v>
+        <v>161.555742168682</v>
       </c>
       <c r="L21" t="n">
         <v>184.5573081723746</v>
       </c>
       <c r="M21" t="n">
-        <v>234.9220657245105</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="N21" t="n">
-        <v>255.6939405553981</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="O21" t="n">
-        <v>400.2399520071124</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="P21" t="n">
-        <v>468.6543377949436</v>
+        <v>150.1915691550063</v>
       </c>
       <c r="Q21" t="n">
-        <v>260.0529435288752</v>
+        <v>49.97565579302602</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36288,16 +36288,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N22" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O22" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P22" t="n">
         <v>148.169049555085</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.30671096229801</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>55.0126645563405</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K23" t="n">
-        <v>133.7007521391024</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L23" t="n">
-        <v>535.6595480032073</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M23" t="n">
-        <v>629.9740312999439</v>
+        <v>258.0240722971092</v>
       </c>
       <c r="N23" t="n">
-        <v>629.9740312999439</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O23" t="n">
-        <v>238.5179771123161</v>
+        <v>619.3181583750613</v>
       </c>
       <c r="P23" t="n">
-        <v>168.7200793398052</v>
+        <v>174.7858535158276</v>
       </c>
       <c r="Q23" t="n">
-        <v>78.04241306744601</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R23" t="n">
-        <v>24.8411321675315</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>13.75723991609044</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K24" t="n">
         <v>366.9228186490254</v>
@@ -36443,19 +36443,19 @@
         <v>555.3976534758337</v>
       </c>
       <c r="M24" t="n">
-        <v>234.9220657245105</v>
+        <v>236.4068955573319</v>
       </c>
       <c r="N24" t="n">
         <v>255.6939405553981</v>
       </c>
       <c r="O24" t="n">
-        <v>339.0416293409597</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P24" t="n">
-        <v>468.6543377949436</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q24" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36525,16 +36525,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N25" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O25" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P25" t="n">
         <v>148.169049555085</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.30671096229801</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>224.1092797284142</v>
+        <v>55.01266455634044</v>
       </c>
       <c r="K26" t="n">
-        <v>304.8192154149317</v>
+        <v>364.4321130754267</v>
       </c>
       <c r="L26" t="n">
         <v>620.8033271354461</v>
       </c>
       <c r="M26" t="n">
-        <v>707.5376057899416</v>
+        <v>707.5376057899417</v>
       </c>
       <c r="N26" t="n">
-        <v>704.2065084585945</v>
+        <v>704.2065084585946</v>
       </c>
       <c r="O26" t="n">
         <v>619.3181583750613</v>
       </c>
       <c r="P26" t="n">
-        <v>168.7200793398051</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q26" t="n">
-        <v>290.3574037273506</v>
+        <v>78.04241306744595</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36683,13 +36683,13 @@
         <v>234.9220657245104</v>
       </c>
       <c r="N27" t="n">
-        <v>255.693940555398</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O27" t="n">
-        <v>298.9054970143253</v>
+        <v>298.9054970143249</v>
       </c>
       <c r="P27" t="n">
-        <v>468.6543377949434</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q27" t="n">
         <v>260.0529435288751</v>
@@ -36753,13 +36753,13 @@
         <v>74.27673217679165</v>
       </c>
       <c r="K28" t="n">
-        <v>202.1091386667568</v>
+        <v>202.1091386667569</v>
       </c>
       <c r="L28" t="n">
         <v>292.5040294974797</v>
       </c>
       <c r="M28" t="n">
-        <v>314.58068681145</v>
+        <v>314.5806868114501</v>
       </c>
       <c r="N28" t="n">
         <v>314.4788694042006</v>
@@ -36768,7 +36768,7 @@
         <v>280.3576908422816</v>
       </c>
       <c r="P28" t="n">
-        <v>227.6002607821919</v>
+        <v>227.600260782192</v>
       </c>
       <c r="Q28" t="n">
         <v>97.73792218940496</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>55.0126645563405</v>
+        <v>55.01266455634044</v>
       </c>
       <c r="K29" t="n">
         <v>457.8461647102671</v>
       </c>
       <c r="L29" t="n">
-        <v>620.8033271354464</v>
+        <v>620.8033271354461</v>
       </c>
       <c r="M29" t="n">
         <v>707.5376057899417</v>
       </c>
       <c r="N29" t="n">
-        <v>704.2065084585947</v>
+        <v>704.2065084585946</v>
       </c>
       <c r="O29" t="n">
-        <v>619.3181583750614</v>
+        <v>619.3181583750613</v>
       </c>
       <c r="P29" t="n">
-        <v>372.2636037089155</v>
+        <v>397.1047358764483</v>
       </c>
       <c r="Q29" t="n">
-        <v>78.04241306744601</v>
+        <v>78.04241306744595</v>
       </c>
       <c r="R29" t="n">
-        <v>24.8411321675315</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>139.8482752564993</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K30" t="n">
         <v>366.9228186490254</v>
@@ -36923,13 +36923,13 @@
         <v>255.6939405553981</v>
       </c>
       <c r="O30" t="n">
-        <v>211.4657641677289</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P30" t="n">
-        <v>468.6543377949436</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q30" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.2767321767917</v>
+        <v>74.27673217679157</v>
       </c>
       <c r="K31" t="n">
-        <v>202.1091386667569</v>
+        <v>202.1091386667568</v>
       </c>
       <c r="L31" t="n">
-        <v>292.5040294974798</v>
+        <v>292.5040294974797</v>
       </c>
       <c r="M31" t="n">
-        <v>314.5806868114501</v>
+        <v>314.5806868114499</v>
       </c>
       <c r="N31" t="n">
-        <v>314.4788694042006</v>
+        <v>314.4788694042005</v>
       </c>
       <c r="O31" t="n">
-        <v>280.3576908422816</v>
+        <v>280.3576908422815</v>
       </c>
       <c r="P31" t="n">
-        <v>227.600260782192</v>
+        <v>227.6002607821919</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.737922189405</v>
+        <v>97.73792218940487</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>55.0126645563405</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K32" t="n">
         <v>457.8461647102671</v>
       </c>
       <c r="L32" t="n">
-        <v>620.8033271354464</v>
+        <v>620.8033271354461</v>
       </c>
       <c r="M32" t="n">
         <v>707.5376057899417</v>
       </c>
       <c r="N32" t="n">
-        <v>704.2065084585947</v>
+        <v>704.2065084585946</v>
       </c>
       <c r="O32" t="n">
-        <v>619.3181583750614</v>
+        <v>619.3181583750613</v>
       </c>
       <c r="P32" t="n">
-        <v>397.1047358764469</v>
+        <v>168.7200793398051</v>
       </c>
       <c r="Q32" t="n">
-        <v>78.04241306744601</v>
+        <v>112.4893222644841</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>139.8482752564993</v>
+        <v>118.7859790630012</v>
       </c>
       <c r="K33" t="n">
         <v>366.9228186490254</v>
       </c>
       <c r="L33" t="n">
-        <v>555.3976534758337</v>
+        <v>184.5573081723746</v>
       </c>
       <c r="M33" t="n">
-        <v>234.9220657245105</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N33" t="n">
-        <v>255.6939405553981</v>
+        <v>735.0363148989516</v>
       </c>
       <c r="O33" t="n">
-        <v>298.9054970143249</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P33" t="n">
-        <v>468.6543377949436</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q33" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.27673217679165</v>
+        <v>74.27673217679163</v>
       </c>
       <c r="K34" t="n">
         <v>202.1091386667568</v>
@@ -37233,7 +37233,7 @@
         <v>292.5040294974797</v>
       </c>
       <c r="M34" t="n">
-        <v>314.5806868114501</v>
+        <v>314.58068681145</v>
       </c>
       <c r="N34" t="n">
         <v>314.4788694042006</v>
@@ -37242,10 +37242,10 @@
         <v>280.3576908422816</v>
       </c>
       <c r="P34" t="n">
-        <v>227.600260782192</v>
+        <v>227.6002607821919</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.73792218940518</v>
+        <v>97.73792218940493</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>55.0126645563405</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K35" t="n">
-        <v>133.7007521391024</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L35" t="n">
-        <v>203.1421125849959</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M35" t="n">
-        <v>674.2621117002074</v>
+        <v>258.0240722971092</v>
       </c>
       <c r="N35" t="n">
-        <v>674.2621117002074</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O35" t="n">
-        <v>238.5179771123161</v>
+        <v>478.948128590746</v>
       </c>
       <c r="P35" t="n">
-        <v>400.5503996762604</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q35" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>139.8482752564993</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K36" t="n">
         <v>366.9228186490254</v>
       </c>
       <c r="L36" t="n">
-        <v>184.5573081723746</v>
+        <v>555.3976534758337</v>
       </c>
       <c r="M36" t="n">
-        <v>234.9220657245105</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N36" t="n">
-        <v>320.1116994287244</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O36" t="n">
-        <v>605.3280834444583</v>
+        <v>298.9054970143253</v>
       </c>
       <c r="P36" t="n">
-        <v>468.6543377949436</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q36" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,16 +37473,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N37" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O37" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P37" t="n">
         <v>148.169049555085</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.30671096229801</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>224.1092797284143</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K38" t="n">
-        <v>133.7007521391024</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L38" t="n">
-        <v>265.8758177493775</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M38" t="n">
-        <v>674.2621117002076</v>
+        <v>258.0240722971092</v>
       </c>
       <c r="N38" t="n">
-        <v>674.2621117002076</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O38" t="n">
-        <v>238.5179771123161</v>
+        <v>454.1069964232145</v>
       </c>
       <c r="P38" t="n">
-        <v>168.7200793398052</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q38" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>13.75723991609044</v>
+        <v>13.75723991609041</v>
       </c>
       <c r="K39" t="n">
         <v>366.9228186490254</v>
       </c>
       <c r="L39" t="n">
-        <v>555.3976534758337</v>
+        <v>184.5573081723746</v>
       </c>
       <c r="M39" t="n">
-        <v>234.9220657245105</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N39" t="n">
-        <v>255.6939405553981</v>
+        <v>446.2027347691334</v>
       </c>
       <c r="O39" t="n">
         <v>605.3280834444583</v>
       </c>
       <c r="P39" t="n">
-        <v>468.6543377949436</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q39" t="n">
-        <v>79.72139243915072</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,16 +37710,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N40" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O40" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P40" t="n">
         <v>148.169049555085</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.30671096229801</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>224.1092797284143</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K41" t="n">
-        <v>133.7007521391024</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L41" t="n">
-        <v>620.8033271354464</v>
+        <v>443.5722640634256</v>
       </c>
       <c r="M41" t="n">
-        <v>674.2621117002076</v>
+        <v>258.0240722971092</v>
       </c>
       <c r="N41" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O41" t="n">
-        <v>238.5179771123161</v>
+        <v>238.517977112316</v>
       </c>
       <c r="P41" t="n">
-        <v>221.1950976073332</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q41" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>139.8482752564993</v>
+        <v>13.75723991609041</v>
       </c>
       <c r="K42" t="n">
         <v>366.9228186490254</v>
@@ -37865,19 +37865,19 @@
         <v>555.3976534758337</v>
       </c>
       <c r="M42" t="n">
-        <v>234.9220657245105</v>
+        <v>373.0532832747238</v>
       </c>
       <c r="N42" t="n">
         <v>255.6939405553981</v>
       </c>
       <c r="O42" t="n">
-        <v>298.9054970143253</v>
+        <v>605.3280834444583</v>
       </c>
       <c r="P42" t="n">
-        <v>468.6543377949436</v>
+        <v>150.1915691550063</v>
       </c>
       <c r="Q42" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,16 +37947,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N43" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O43" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P43" t="n">
         <v>148.169049555085</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.30671096229801</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>224.1092797284143</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K44" t="n">
-        <v>133.7007521391024</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L44" t="n">
-        <v>620.8033271354464</v>
+        <v>443.5722640634256</v>
       </c>
       <c r="M44" t="n">
         <v>258.0240722971092</v>
       </c>
       <c r="N44" t="n">
-        <v>674.2621117002074</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O44" t="n">
-        <v>238.5179771123161</v>
+        <v>238.517977112316</v>
       </c>
       <c r="P44" t="n">
-        <v>205.1894771893023</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q44" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R44" t="n">
-        <v>24.8411321675315</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>139.8482752564993</v>
+        <v>13.75723991609041</v>
       </c>
       <c r="K45" t="n">
-        <v>366.9228186490254</v>
+        <v>102.4575816364468</v>
       </c>
       <c r="L45" t="n">
-        <v>555.3976534758337</v>
+        <v>184.5573081723746</v>
       </c>
       <c r="M45" t="n">
-        <v>322.361798571107</v>
+        <v>589.7906944459522</v>
       </c>
       <c r="N45" t="n">
-        <v>255.6939405553981</v>
+        <v>674.2621117002074</v>
       </c>
       <c r="O45" t="n">
-        <v>211.4657641677289</v>
+        <v>605.3280834444583</v>
       </c>
       <c r="P45" t="n">
-        <v>468.6543377949436</v>
+        <v>150.1915691550063</v>
       </c>
       <c r="Q45" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,16 +38184,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N46" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O46" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P46" t="n">
         <v>148.169049555085</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.30671096229801</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
